--- a/sofascore_team_data/Serie_A_Team_Stats.xlsx
+++ b/sofascore_team_data/Serie_A_Team_Stats.xlsx
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -1190,124 +1190,124 @@
         <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
         <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="Q2" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U2" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="V2" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X2" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Z2" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AA2" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB2" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AC2" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>60.173913043478</v>
+        <v>60.25</v>
       </c>
       <c r="AI2" t="n">
-        <v>12362</v>
+        <v>12892</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10751</v>
+        <v>11229</v>
       </c>
       <c r="AK2" t="n">
-        <v>86.968128134606</v>
+        <v>87.100527458889</v>
       </c>
       <c r="AL2" t="n">
-        <v>5421</v>
+        <v>5592</v>
       </c>
       <c r="AM2" t="n">
-        <v>5043</v>
+        <v>5203</v>
       </c>
       <c r="AN2" t="n">
-        <v>93.027116768124</v>
+        <v>93.043633762518</v>
       </c>
       <c r="AO2" t="n">
-        <v>6941</v>
+        <v>7300</v>
       </c>
       <c r="AP2" t="n">
-        <v>5708</v>
+        <v>6026</v>
       </c>
       <c r="AQ2" t="n">
-        <v>82.235989050569</v>
+        <v>82.547945205479</v>
       </c>
       <c r="AR2" t="n">
-        <v>818</v>
+        <v>839</v>
       </c>
       <c r="AS2" t="n">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AT2" t="n">
-        <v>56.723716381418</v>
+        <v>56.138259833135</v>
       </c>
       <c r="AU2" t="n">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="AV2" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AW2" t="n">
-        <v>30.579964850615</v>
+        <v>30.584192439863</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="AZ2" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BA2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BB2" t="n">
         <v>1</v>
@@ -1322,52 +1322,52 @@
         <v>2</v>
       </c>
       <c r="BF2" t="n">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI2" t="n">
-        <v>2011</v>
+        <v>2074</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1056</v>
+        <v>1089</v>
       </c>
       <c r="BK2" t="n">
-        <v>52.511188463451</v>
+        <v>52.507232401157</v>
       </c>
       <c r="BL2" t="n">
-        <v>1394</v>
+        <v>1439</v>
       </c>
       <c r="BM2" t="n">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="BN2" t="n">
-        <v>51.2912482066</v>
+        <v>51.216122307158</v>
       </c>
       <c r="BO2" t="n">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="BP2" t="n">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="BQ2" t="n">
-        <v>55.267423014587</v>
+        <v>55.433070866142</v>
       </c>
       <c r="BR2" t="n">
-        <v>2745</v>
+        <v>2823</v>
       </c>
       <c r="BS2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BT2" t="n">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="BU2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1376,46 +1376,46 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>6.9949579831933</v>
+        <v>7.0085790884718</v>
       </c>
       <c r="BY2" t="n">
-        <v>1245</v>
+        <v>1286</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2785</v>
+        <v>2871</v>
       </c>
       <c r="CA2" t="n">
-        <v>3882</v>
+        <v>4061</v>
       </c>
       <c r="CB2" t="n">
-        <v>6667</v>
+        <v>6932</v>
       </c>
       <c r="CC2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CD2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CE2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CF2" t="n">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="CG2" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="CH2" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="CI2" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="CJ2" t="n">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="CK2" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="CL2" t="n">
         <v>8</v>
@@ -1427,79 +1427,79 @@
         <v>6</v>
       </c>
       <c r="CO2" t="n">
+        <v>202</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>156</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>570</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1242</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>34</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU2" t="n">
         <v>200</v>
       </c>
-      <c r="CP2" t="n">
-        <v>152</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>547</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1198</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>31</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>193</v>
-      </c>
       <c r="CV2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="CW2" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="CX2" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CY2" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="CZ2" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="DA2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="DB2" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="DC2" t="n">
-        <v>1880</v>
+        <v>1949</v>
       </c>
       <c r="DD2" t="n">
-        <v>3862</v>
+        <v>3990</v>
       </c>
       <c r="DE2" t="n">
-        <v>4410</v>
+        <v>4602</v>
       </c>
       <c r="DF2" t="n">
-        <v>8272</v>
+        <v>8592</v>
       </c>
       <c r="DG2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="DH2" t="n">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="DI2" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1061</v>
+        <v>1090</v>
       </c>
       <c r="DK2" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="DL2" t="n">
         <v>49437</v>
       </c>
       <c r="DM2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
@@ -1515,70 +1515,70 @@
         </is>
       </c>
       <c r="DQ2" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="DS2" t="n">
-        <v>18.22</v>
+        <v>18.42</v>
       </c>
       <c r="DT2" t="n">
-        <v>6.09</v>
+        <v>6.29</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.87</v>
+        <v>6.83</v>
       </c>
       <c r="DV2" t="n">
-        <v>14.13</v>
+        <v>13.96</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="DX2" t="n">
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="EB2" t="n">
         <v>0.17</v>
       </c>
       <c r="EC2" t="n">
-        <v>467.43</v>
+        <v>467.88</v>
       </c>
       <c r="ED2" t="n">
-        <v>14.83</v>
+        <v>14.75</v>
       </c>
       <c r="EE2" t="n">
-        <v>6.17</v>
+        <v>6.08</v>
       </c>
       <c r="EF2" t="n">
-        <v>18.61</v>
+        <v>18.5</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="EH2" t="n">
-        <v>45.91</v>
+        <v>45.38</v>
       </c>
       <c r="EI2" t="n">
-        <v>31.09</v>
+        <v>30.71</v>
       </c>
       <c r="EJ2" t="n">
-        <v>14.83</v>
+        <v>14.67</v>
       </c>
       <c r="EK2" t="n">
-        <v>119.35</v>
+        <v>117.62</v>
       </c>
       <c r="EL2" t="n">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="3">
@@ -2125,22 +2125,22 @@
         <v>57.458333333333</v>
       </c>
       <c r="AI4" t="n">
-        <v>12859</v>
+        <v>12860</v>
       </c>
       <c r="AJ4" t="n">
         <v>11086</v>
       </c>
       <c r="AK4" t="n">
-        <v>86.211991601213</v>
+        <v>86.205287713841</v>
       </c>
       <c r="AL4" t="n">
-        <v>6291</v>
+        <v>6292</v>
       </c>
       <c r="AM4" t="n">
         <v>5773</v>
       </c>
       <c r="AN4" t="n">
-        <v>91.766014941981</v>
+        <v>91.751430387794</v>
       </c>
       <c r="AO4" t="n">
         <v>6568</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="n">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -2498,19 +2498,19 @@
         <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O5" t="n">
         <v>6</v>
       </c>
       <c r="P5" t="n">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="Q5" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="R5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
         <v>16</v>
@@ -2519,31 +2519,31 @@
         <v>14</v>
       </c>
       <c r="U5" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="V5" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X5" t="n">
+        <v>146</v>
+      </c>
+      <c r="Y5" t="n">
         <v>138</v>
       </c>
-      <c r="Y5" t="n">
-        <v>125</v>
-      </c>
       <c r="Z5" t="n">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AA5" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AB5" t="n">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="AC5" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AD5" t="n">
         <v>14</v>
@@ -2558,67 +2558,67 @@
         <v>25</v>
       </c>
       <c r="AH5" t="n">
-        <v>57.652173913043</v>
+        <v>57.875</v>
       </c>
       <c r="AI5" t="n">
-        <v>12127</v>
+        <v>12757</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10541</v>
+        <v>11099</v>
       </c>
       <c r="AK5" t="n">
-        <v>86.921744866826</v>
+        <v>87.00321392176799</v>
       </c>
       <c r="AL5" t="n">
-        <v>5214</v>
+        <v>5498</v>
       </c>
       <c r="AM5" t="n">
-        <v>4779</v>
+        <v>5048</v>
       </c>
       <c r="AN5" t="n">
-        <v>91.657077100115</v>
+        <v>91.81520552928301</v>
       </c>
       <c r="AO5" t="n">
-        <v>6913</v>
+        <v>7259</v>
       </c>
       <c r="AP5" t="n">
-        <v>5762</v>
+        <v>6051</v>
       </c>
       <c r="AQ5" t="n">
-        <v>83.35020974974699</v>
+        <v>83.358589337374</v>
       </c>
       <c r="AR5" t="n">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="AS5" t="n">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="AT5" t="n">
-        <v>56.87263556116</v>
+        <v>56.569343065693</v>
       </c>
       <c r="AU5" t="n">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="AV5" t="n">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="AW5" t="n">
-        <v>21.777777777778</v>
+        <v>22.381930184805</v>
       </c>
       <c r="AX5" t="n">
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="AZ5" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="BA5" t="n">
         <v>45</v>
       </c>
       <c r="BB5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
         <v>15</v>
@@ -2630,49 +2630,49 @@
         <v>1</v>
       </c>
       <c r="BF5" t="n">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="BG5" t="n">
         <v>1</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI5" t="n">
-        <v>2043</v>
+        <v>2146</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1042</v>
+        <v>1093</v>
       </c>
       <c r="BK5" t="n">
-        <v>51.003426333823</v>
+        <v>50.931966449208</v>
       </c>
       <c r="BL5" t="n">
-        <v>1475</v>
+        <v>1546</v>
       </c>
       <c r="BM5" t="n">
-        <v>753</v>
+        <v>788</v>
       </c>
       <c r="BN5" t="n">
-        <v>51.050847457627</v>
+        <v>50.970245795602</v>
       </c>
       <c r="BO5" t="n">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="BP5" t="n">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="BQ5" t="n">
-        <v>50.880281690141</v>
+        <v>50.833333333333</v>
       </c>
       <c r="BR5" t="n">
-        <v>2782</v>
+        <v>2920</v>
       </c>
       <c r="BS5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BT5" t="n">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="BU5" t="n">
         <v>30</v>
@@ -2684,19 +2684,19 @@
         <v>1</v>
       </c>
       <c r="BX5" t="n">
-        <v>6.8923295454545</v>
+        <v>6.891847826087</v>
       </c>
       <c r="BY5" t="n">
-        <v>1446</v>
+        <v>1482</v>
       </c>
       <c r="BZ5" t="n">
-        <v>3158</v>
+        <v>3266</v>
       </c>
       <c r="CA5" t="n">
-        <v>4180</v>
+        <v>4388</v>
       </c>
       <c r="CB5" t="n">
-        <v>7338</v>
+        <v>7654</v>
       </c>
       <c r="CC5" t="n">
         <v>24</v>
@@ -2708,106 +2708,106 @@
         <v>16</v>
       </c>
       <c r="CF5" t="n">
-        <v>637</v>
+        <v>670</v>
       </c>
       <c r="CG5" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CH5" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CI5" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CJ5" t="n">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="CK5" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="CL5" t="n">
         <v>6</v>
       </c>
       <c r="CM5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CN5" t="n">
         <v>6</v>
       </c>
       <c r="CO5" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="CP5" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="CQ5" t="n">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="CR5" t="n">
-        <v>1052</v>
+        <v>1108</v>
       </c>
       <c r="CS5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CT5" t="n">
         <v>2</v>
       </c>
       <c r="CU5" t="n">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="CV5" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="CW5" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="CX5" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="CY5" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="CZ5" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="DA5" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="DB5" t="n">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="DC5" t="n">
-        <v>2070</v>
+        <v>2132</v>
       </c>
       <c r="DD5" t="n">
-        <v>4267</v>
+        <v>4425</v>
       </c>
       <c r="DE5" t="n">
-        <v>4645</v>
+        <v>4876</v>
       </c>
       <c r="DF5" t="n">
-        <v>8912</v>
+        <v>9301</v>
       </c>
       <c r="DG5" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="DH5" t="n">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="DI5" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1109</v>
+        <v>1168</v>
       </c>
       <c r="DK5" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="DL5" t="n">
         <v>49359</v>
       </c>
       <c r="DM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
@@ -2823,70 +2823,70 @@
         </is>
       </c>
       <c r="DQ5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="DS5" t="n">
-        <v>16.17</v>
+        <v>16.92</v>
       </c>
       <c r="DT5" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="DU5" t="n">
-        <v>5.26</v>
+        <v>5.38</v>
       </c>
       <c r="DV5" t="n">
-        <v>13.17</v>
+        <v>13.04</v>
       </c>
       <c r="DW5" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="DX5" t="n">
         <v>0.04</v>
       </c>
       <c r="DY5" t="n">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="EC5" t="n">
-        <v>458.3</v>
+        <v>462.46</v>
       </c>
       <c r="ED5" t="n">
-        <v>15.74</v>
+        <v>16.04</v>
       </c>
       <c r="EE5" t="n">
-        <v>6.87</v>
+        <v>6.88</v>
       </c>
       <c r="EF5" t="n">
-        <v>17.48</v>
+        <v>17.08</v>
       </c>
       <c r="EG5" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="EH5" t="n">
-        <v>45.3</v>
+        <v>45.54</v>
       </c>
       <c r="EI5" t="n">
-        <v>32.74</v>
+        <v>32.83</v>
       </c>
       <c r="EJ5" t="n">
-        <v>12.57</v>
+        <v>12.71</v>
       </c>
       <c r="EK5" t="n">
-        <v>120.96</v>
+        <v>121.67</v>
       </c>
       <c r="EL5" t="n">
-        <v>7.22</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="6">
@@ -2904,10 +2904,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
         <v>14</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
@@ -2934,13 +2934,13 @@
         <v>11</v>
       </c>
       <c r="N6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="Q6" t="n">
         <v>97</v>
@@ -2952,106 +2952,106 @@
         <v>10</v>
       </c>
       <c r="T6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V6" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="W6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X6" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Y6" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Z6" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AB6" t="n">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="AC6" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AD6" t="n">
         <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>58.173913043478</v>
+        <v>57.958333333333</v>
       </c>
       <c r="AI6" t="n">
-        <v>11428</v>
+        <v>11933</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9563</v>
+        <v>9992</v>
       </c>
       <c r="AK6" t="n">
-        <v>83.680434021701</v>
+        <v>83.734182519065</v>
       </c>
       <c r="AL6" t="n">
-        <v>4903</v>
+        <v>5083</v>
       </c>
       <c r="AM6" t="n">
-        <v>4445</v>
+        <v>4619</v>
       </c>
       <c r="AN6" t="n">
-        <v>90.65878033856799</v>
+        <v>90.871532559512</v>
       </c>
       <c r="AO6" t="n">
-        <v>6525</v>
+        <v>6850</v>
       </c>
       <c r="AP6" t="n">
-        <v>5118</v>
+        <v>5373</v>
       </c>
       <c r="AQ6" t="n">
-        <v>78.43678160919499</v>
+        <v>78.43795620438</v>
       </c>
       <c r="AR6" t="n">
-        <v>893</v>
+        <v>933</v>
       </c>
       <c r="AS6" t="n">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="AT6" t="n">
-        <v>48.936170212766</v>
+        <v>49.41050375134</v>
       </c>
       <c r="AU6" t="n">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="AV6" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AW6" t="n">
-        <v>20.235294117647</v>
+        <v>20.620842572062</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="AZ6" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="BA6" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BB6" t="n">
         <v>1</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="BG6" t="n">
         <v>1</v>
@@ -3075,43 +3075,43 @@
         <v>5</v>
       </c>
       <c r="BI6" t="n">
-        <v>2457</v>
+        <v>2542</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1188</v>
+        <v>1229</v>
       </c>
       <c r="BK6" t="n">
-        <v>48.351648351648</v>
+        <v>48.347757671125</v>
       </c>
       <c r="BL6" t="n">
-        <v>1727</v>
+        <v>1794</v>
       </c>
       <c r="BM6" t="n">
-        <v>814</v>
+        <v>843</v>
       </c>
       <c r="BN6" t="n">
-        <v>47.133757961783</v>
+        <v>46.989966555184</v>
       </c>
       <c r="BO6" t="n">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="BP6" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="BQ6" t="n">
-        <v>51.232876712329</v>
+        <v>51.604278074866</v>
       </c>
       <c r="BR6" t="n">
-        <v>3155</v>
+        <v>3286</v>
       </c>
       <c r="BS6" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BT6" t="n">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="BU6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BV6" t="n">
         <v>0</v>
@@ -3120,46 +3120,46 @@
         <v>1</v>
       </c>
       <c r="BX6" t="n">
-        <v>6.8549575070822</v>
+        <v>6.8641304347826</v>
       </c>
       <c r="BY6" t="n">
-        <v>1278</v>
+        <v>1304</v>
       </c>
       <c r="BZ6" t="n">
-        <v>2583</v>
+        <v>2667</v>
       </c>
       <c r="CA6" t="n">
-        <v>3731</v>
+        <v>4026</v>
       </c>
       <c r="CB6" t="n">
-        <v>6314</v>
+        <v>6693</v>
       </c>
       <c r="CC6" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CD6" t="n">
         <v>37</v>
       </c>
       <c r="CE6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CF6" t="n">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="CG6" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CH6" t="n">
         <v>58</v>
       </c>
       <c r="CI6" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CJ6" t="n">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="CK6" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="CL6" t="n">
         <v>6</v>
@@ -3168,19 +3168,19 @@
         <v>12</v>
       </c>
       <c r="CN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CO6" t="n">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="CP6" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="CQ6" t="n">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="CR6" t="n">
-        <v>1251</v>
+        <v>1306</v>
       </c>
       <c r="CS6" t="n">
         <v>40</v>
@@ -3189,61 +3189,61 @@
         <v>2</v>
       </c>
       <c r="CU6" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CV6" t="n">
         <v>52</v>
       </c>
       <c r="CW6" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CX6" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CY6" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="CZ6" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="DA6" t="n">
         <v>51</v>
       </c>
       <c r="DB6" t="n">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="DC6" t="n">
-        <v>2086</v>
+        <v>2143</v>
       </c>
       <c r="DD6" t="n">
-        <v>3951</v>
+        <v>4091</v>
       </c>
       <c r="DE6" t="n">
-        <v>4269</v>
+        <v>4604</v>
       </c>
       <c r="DF6" t="n">
-        <v>8220</v>
+        <v>8695</v>
       </c>
       <c r="DG6" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="DH6" t="n">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="DI6" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1141</v>
+        <v>1205</v>
       </c>
       <c r="DK6" t="n">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="DL6" t="n">
         <v>49107</v>
       </c>
       <c r="DM6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
@@ -3259,70 +3259,70 @@
         </is>
       </c>
       <c r="DQ6" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="DS6" t="n">
-        <v>13.61</v>
+        <v>13.67</v>
       </c>
       <c r="DT6" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="DU6" t="n">
-        <v>5</v>
+        <v>5.08</v>
       </c>
       <c r="DV6" t="n">
-        <v>14.65</v>
+        <v>14.79</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="DX6" t="n">
         <v>0.04</v>
       </c>
       <c r="DY6" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="EA6" t="n">
         <v>0.17</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="EC6" t="n">
-        <v>415.78</v>
+        <v>416.33</v>
       </c>
       <c r="ED6" t="n">
-        <v>16.04</v>
+        <v>15.79</v>
       </c>
       <c r="EE6" t="n">
-        <v>8.65</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="EF6" t="n">
-        <v>20.3</v>
+        <v>19.75</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="EH6" t="n">
-        <v>51.65</v>
+        <v>51.21</v>
       </c>
       <c r="EI6" t="n">
-        <v>35.39</v>
+        <v>35.12</v>
       </c>
       <c r="EJ6" t="n">
-        <v>16.26</v>
+        <v>16.08</v>
       </c>
       <c r="EK6" t="n">
-        <v>137.17</v>
+        <v>136.92</v>
       </c>
       <c r="EL6" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="7">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" t="n">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -3806,22 +3806,22 @@
         <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Q8" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="R8" t="n">
         <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -3836,94 +3836,94 @@
         <v>38</v>
       </c>
       <c r="X8" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Z8" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AA8" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AB8" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AC8" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AF8" t="n">
         <v>2</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AH8" t="n">
-        <v>54.130434782609</v>
+        <v>54.208333333333</v>
       </c>
       <c r="AI8" t="n">
-        <v>10919</v>
+        <v>11406</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9245</v>
+        <v>9646</v>
       </c>
       <c r="AK8" t="n">
-        <v>84.668925725799</v>
+        <v>84.569524811503</v>
       </c>
       <c r="AL8" t="n">
-        <v>5029</v>
+        <v>5251</v>
       </c>
       <c r="AM8" t="n">
-        <v>4562</v>
+        <v>4762</v>
       </c>
       <c r="AN8" t="n">
-        <v>90.71385961423699</v>
+        <v>90.687488097505</v>
       </c>
       <c r="AO8" t="n">
-        <v>5890</v>
+        <v>6155</v>
       </c>
       <c r="AP8" t="n">
-        <v>4683</v>
+        <v>4884</v>
       </c>
       <c r="AQ8" t="n">
-        <v>79.50764006791201</v>
+        <v>79.35012185215299</v>
       </c>
       <c r="AR8" t="n">
-        <v>784</v>
+        <v>822</v>
       </c>
       <c r="AS8" t="n">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AT8" t="n">
-        <v>56.505102040816</v>
+        <v>57.05596107056</v>
       </c>
       <c r="AU8" t="n">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="AV8" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AW8" t="n">
-        <v>24.355971896956</v>
+        <v>25.054466230937</v>
       </c>
       <c r="AX8" t="n">
         <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AZ8" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BA8" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BB8" t="n">
         <v>3</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="BF8" t="n">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="BG8" t="n">
         <v>1</v>
@@ -3947,43 +3947,43 @@
         <v>4</v>
       </c>
       <c r="BI8" t="n">
-        <v>2194</v>
+        <v>2300</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1106</v>
+        <v>1155</v>
       </c>
       <c r="BK8" t="n">
-        <v>50.410209662716</v>
+        <v>50.217391304348</v>
       </c>
       <c r="BL8" t="n">
-        <v>1537</v>
+        <v>1588</v>
       </c>
       <c r="BM8" t="n">
-        <v>787</v>
+        <v>813</v>
       </c>
       <c r="BN8" t="n">
-        <v>51.203643461288</v>
+        <v>51.196473551637</v>
       </c>
       <c r="BO8" t="n">
-        <v>657</v>
+        <v>712</v>
       </c>
       <c r="BP8" t="n">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="BQ8" t="n">
-        <v>48.55403348554</v>
+        <v>48.033707865169</v>
       </c>
       <c r="BR8" t="n">
-        <v>2850</v>
+        <v>2984</v>
       </c>
       <c r="BS8" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BT8" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="BU8" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BV8" t="n">
         <v>1</v>
@@ -3992,130 +3992,130 @@
         <v>2</v>
       </c>
       <c r="BX8" t="n">
-        <v>6.9016853932584</v>
+        <v>6.902688172043</v>
       </c>
       <c r="BY8" t="n">
-        <v>1733</v>
+        <v>1785</v>
       </c>
       <c r="BZ8" t="n">
-        <v>3675</v>
+        <v>3808</v>
       </c>
       <c r="CA8" t="n">
-        <v>3977</v>
+        <v>4140</v>
       </c>
       <c r="CB8" t="n">
-        <v>7652</v>
+        <v>7948</v>
       </c>
       <c r="CC8" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CD8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CE8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CF8" t="n">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="CG8" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CH8" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="CI8" t="n">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="CJ8" t="n">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="CK8" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="CL8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CM8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CN8" t="n">
         <v>5</v>
       </c>
       <c r="CO8" t="n">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="CP8" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="CQ8" t="n">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="CR8" t="n">
-        <v>1213</v>
+        <v>1289</v>
       </c>
       <c r="CS8" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="CT8" t="n">
         <v>1</v>
       </c>
       <c r="CU8" t="n">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="CV8" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="CW8" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CX8" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="CY8" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="CZ8" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="DA8" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="DB8" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="DC8" t="n">
-        <v>2583</v>
+        <v>2674</v>
       </c>
       <c r="DD8" t="n">
-        <v>4994</v>
+        <v>5202</v>
       </c>
       <c r="DE8" t="n">
-        <v>4353</v>
+        <v>4533</v>
       </c>
       <c r="DF8" t="n">
-        <v>9347</v>
+        <v>9735</v>
       </c>
       <c r="DG8" t="n">
         <v>33</v>
       </c>
       <c r="DH8" t="n">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="DI8" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="DJ8" t="n">
-        <v>1107</v>
+        <v>1161</v>
       </c>
       <c r="DK8" t="n">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="DL8" t="n">
         <v>49357</v>
       </c>
       <c r="DM8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
@@ -4131,70 +4131,70 @@
         </is>
       </c>
       <c r="DQ8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="DS8" t="n">
-        <v>14.13</v>
+        <v>14.75</v>
       </c>
       <c r="DT8" t="n">
-        <v>4.39</v>
+        <v>4.58</v>
       </c>
       <c r="DU8" t="n">
-        <v>5.39</v>
+        <v>5.71</v>
       </c>
       <c r="DV8" t="n">
-        <v>11.48</v>
+        <v>11.46</v>
       </c>
       <c r="DW8" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="DY8" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="EC8" t="n">
-        <v>401.96</v>
+        <v>401.92</v>
       </c>
       <c r="ED8" t="n">
-        <v>15.91</v>
+        <v>15.67</v>
       </c>
       <c r="EE8" t="n">
-        <v>7.22</v>
+        <v>7.12</v>
       </c>
       <c r="EF8" t="n">
-        <v>23.39</v>
+        <v>23.46</v>
       </c>
       <c r="EG8" t="n">
-        <v>3.17</v>
+        <v>3.08</v>
       </c>
       <c r="EH8" t="n">
-        <v>48.09</v>
+        <v>48.12</v>
       </c>
       <c r="EI8" t="n">
-        <v>34.22</v>
+        <v>33.88</v>
       </c>
       <c r="EJ8" t="n">
-        <v>13.87</v>
+        <v>14.25</v>
       </c>
       <c r="EK8" t="n">
-        <v>123.91</v>
+        <v>124.33</v>
       </c>
       <c r="EL8" t="n">
-        <v>8.52</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4212,22 +4212,22 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26</v>
+      </c>
+      <c r="F9" t="n">
         <v>23</v>
-      </c>
-      <c r="E9" t="n">
-        <v>24</v>
-      </c>
-      <c r="F9" t="n">
-        <v>21</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -4239,28 +4239,28 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q9" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R9" t="n">
         <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U9" t="n">
         <v>43</v>
@@ -4272,100 +4272,100 @@
         <v>27</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y9" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Z9" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB9" t="n">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="AC9" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD9" t="n">
         <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
         <v>3</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>50.826086956522</v>
+        <v>50.25</v>
       </c>
       <c r="AI9" t="n">
-        <v>11047</v>
+        <v>11436</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9451</v>
+        <v>9767</v>
       </c>
       <c r="AK9" t="n">
-        <v>85.552638725446</v>
+        <v>85.405736271424</v>
       </c>
       <c r="AL9" t="n">
-        <v>5795</v>
+        <v>6026</v>
       </c>
       <c r="AM9" t="n">
-        <v>5279</v>
+        <v>5487</v>
       </c>
       <c r="AN9" t="n">
-        <v>91.095772217429</v>
+        <v>91.055426485231</v>
       </c>
       <c r="AO9" t="n">
-        <v>5252</v>
+        <v>5410</v>
       </c>
       <c r="AP9" t="n">
-        <v>4172</v>
+        <v>4280</v>
       </c>
       <c r="AQ9" t="n">
-        <v>79.436405178979</v>
+        <v>79.112754158965</v>
       </c>
       <c r="AR9" t="n">
-        <v>703</v>
+        <v>730</v>
       </c>
       <c r="AS9" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="AT9" t="n">
-        <v>55.192034139403</v>
+        <v>54.794520547945</v>
       </c>
       <c r="AU9" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AV9" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AW9" t="n">
-        <v>23.856209150327</v>
+        <v>24.025974025974</v>
       </c>
       <c r="AX9" t="n">
         <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="AZ9" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="BA9" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="BB9" t="n">
         <v>2</v>
       </c>
       <c r="BC9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>3</v>
@@ -4374,7 +4374,7 @@
         <v>2</v>
       </c>
       <c r="BF9" t="n">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="BG9" t="n">
         <v>1</v>
@@ -4383,43 +4383,43 @@
         <v>3</v>
       </c>
       <c r="BI9" t="n">
-        <v>2031</v>
+        <v>2134</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1061</v>
+        <v>1113</v>
       </c>
       <c r="BK9" t="n">
-        <v>52.240275726243</v>
+        <v>52.155576382381</v>
       </c>
       <c r="BL9" t="n">
-        <v>1481</v>
+        <v>1552</v>
       </c>
       <c r="BM9" t="n">
-        <v>775</v>
+        <v>811</v>
       </c>
       <c r="BN9" t="n">
-        <v>52.329507089804</v>
+        <v>52.255154639175</v>
       </c>
       <c r="BO9" t="n">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="BP9" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="BQ9" t="n">
-        <v>52</v>
+        <v>51.890034364261</v>
       </c>
       <c r="BR9" t="n">
-        <v>2535</v>
+        <v>2648</v>
       </c>
       <c r="BS9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BT9" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="BU9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BV9" t="n">
         <v>1</v>
@@ -4428,49 +4428,49 @@
         <v>7</v>
       </c>
       <c r="BX9" t="n">
-        <v>6.8347338935574</v>
+        <v>6.8351206434316</v>
       </c>
       <c r="BY9" t="n">
-        <v>1623</v>
+        <v>1786</v>
       </c>
       <c r="BZ9" t="n">
-        <v>3529</v>
+        <v>3818</v>
       </c>
       <c r="CA9" t="n">
-        <v>5484</v>
+        <v>5753</v>
       </c>
       <c r="CB9" t="n">
-        <v>9013</v>
+        <v>9571</v>
       </c>
       <c r="CC9" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="CD9" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CE9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CF9" t="n">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="CG9" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="CH9" t="n">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="CI9" t="n">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="CJ9" t="n">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="CK9" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="CL9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CM9" t="n">
         <v>12</v>
@@ -4479,79 +4479,79 @@
         <v>8</v>
       </c>
       <c r="CO9" t="n">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="CP9" t="n">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="CQ9" t="n">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="CR9" t="n">
-        <v>1083</v>
+        <v>1117</v>
       </c>
       <c r="CS9" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="CT9" t="n">
         <v>2</v>
       </c>
       <c r="CU9" t="n">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="CV9" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="CW9" t="n">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="CX9" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="CY9" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="CZ9" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="DA9" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="DB9" t="n">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="DC9" t="n">
-        <v>2296</v>
+        <v>2495</v>
       </c>
       <c r="DD9" t="n">
-        <v>4638</v>
+        <v>4984</v>
       </c>
       <c r="DE9" t="n">
-        <v>5884</v>
+        <v>6168</v>
       </c>
       <c r="DF9" t="n">
-        <v>10522</v>
+        <v>11152</v>
       </c>
       <c r="DG9" t="n">
         <v>63</v>
       </c>
       <c r="DH9" t="n">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="DI9" t="n">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="DJ9" t="n">
-        <v>979</v>
+        <v>1029</v>
       </c>
       <c r="DK9" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="DL9" t="n">
         <v>49330</v>
       </c>
       <c r="DM9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN9" t="n">
         <v>0</v>
@@ -4567,70 +4567,70 @@
         </is>
       </c>
       <c r="DQ9" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="DS9" t="n">
-        <v>11.04</v>
+        <v>10.96</v>
       </c>
       <c r="DT9" t="n">
-        <v>3.91</v>
+        <v>3.83</v>
       </c>
       <c r="DU9" t="n">
-        <v>3.7</v>
+        <v>3.58</v>
       </c>
       <c r="DV9" t="n">
-        <v>10.83</v>
+        <v>10.54</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="EB9" t="n">
         <v>0.17</v>
       </c>
       <c r="EC9" t="n">
-        <v>410.91</v>
+        <v>406.96</v>
       </c>
       <c r="ED9" t="n">
-        <v>13.26</v>
+        <v>13.71</v>
       </c>
       <c r="EE9" t="n">
         <v>8.17</v>
       </c>
       <c r="EF9" t="n">
-        <v>19.26</v>
+        <v>19.83</v>
       </c>
       <c r="EG9" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="EH9" t="n">
-        <v>46.13</v>
+        <v>46.38</v>
       </c>
       <c r="EI9" t="n">
-        <v>33.7</v>
+        <v>33.79</v>
       </c>
       <c r="EJ9" t="n">
-        <v>12.43</v>
+        <v>12.58</v>
       </c>
       <c r="EK9" t="n">
-        <v>110.22</v>
+        <v>110.33</v>
       </c>
       <c r="EL9" t="n">
-        <v>5.65</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="10">
@@ -4648,13 +4648,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -4663,13 +4663,13 @@
         <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -4678,16 +4678,16 @@
         <v>11</v>
       </c>
       <c r="N10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O10" t="n">
         <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="R10" t="n">
         <v>4</v>
@@ -4696,10 +4696,10 @@
         <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U10" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V10" t="n">
         <v>34</v>
@@ -4708,19 +4708,19 @@
         <v>27</v>
       </c>
       <c r="X10" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y10" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Z10" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="AB10" t="n">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="AC10" t="n">
         <v>104</v>
@@ -4738,67 +4738,67 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>45.695652173913</v>
+        <v>45.708333333333</v>
       </c>
       <c r="AI10" t="n">
-        <v>8326</v>
+        <v>8665</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6682</v>
+        <v>6918</v>
       </c>
       <c r="AK10" t="n">
-        <v>80.25462406918101</v>
+        <v>79.838430467398</v>
       </c>
       <c r="AL10" t="n">
-        <v>4000</v>
+        <v>4168</v>
       </c>
       <c r="AM10" t="n">
-        <v>3574</v>
+        <v>3717</v>
       </c>
       <c r="AN10" t="n">
-        <v>89.34999999999999</v>
+        <v>89.179462571977</v>
       </c>
       <c r="AO10" t="n">
-        <v>4326</v>
+        <v>4497</v>
       </c>
       <c r="AP10" t="n">
-        <v>3108</v>
+        <v>3201</v>
       </c>
       <c r="AQ10" t="n">
-        <v>71.84466019417501</v>
+        <v>71.18078719146099</v>
       </c>
       <c r="AR10" t="n">
-        <v>824</v>
+        <v>874</v>
       </c>
       <c r="AS10" t="n">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AT10" t="n">
-        <v>48.665048543689</v>
+        <v>47.139588100686</v>
       </c>
       <c r="AU10" t="n">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="AV10" t="n">
         <v>79</v>
       </c>
       <c r="AW10" t="n">
-        <v>22.191011235955</v>
+        <v>21.703296703297</v>
       </c>
       <c r="AX10" t="n">
         <v>5</v>
       </c>
       <c r="AY10" t="n">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="AZ10" t="n">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="BA10" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BB10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC10" t="n">
         <v>11</v>
@@ -4810,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="BF10" t="n">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="BG10" t="n">
         <v>3</v>
@@ -4819,43 +4819,43 @@
         <v>6</v>
       </c>
       <c r="BI10" t="n">
-        <v>2327</v>
+        <v>2448</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1171</v>
+        <v>1231</v>
       </c>
       <c r="BK10" t="n">
-        <v>50.322303394929</v>
+        <v>50.285947712418</v>
       </c>
       <c r="BL10" t="n">
-        <v>1580</v>
+        <v>1656</v>
       </c>
       <c r="BM10" t="n">
-        <v>778</v>
+        <v>814</v>
       </c>
       <c r="BN10" t="n">
-        <v>49.240506329114</v>
+        <v>49.154589371981</v>
       </c>
       <c r="BO10" t="n">
-        <v>747</v>
+        <v>792</v>
       </c>
       <c r="BP10" t="n">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="BQ10" t="n">
-        <v>52.610441767068</v>
+        <v>52.651515151515</v>
       </c>
       <c r="BR10" t="n">
-        <v>2817</v>
+        <v>2978</v>
       </c>
       <c r="BS10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BT10" t="n">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="BU10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BV10" t="n">
         <v>0</v>
@@ -4864,130 +4864,130 @@
         <v>1</v>
       </c>
       <c r="BX10" t="n">
-        <v>6.7588235294118</v>
+        <v>6.7486559139785</v>
       </c>
       <c r="BY10" t="n">
-        <v>1798</v>
+        <v>1882</v>
       </c>
       <c r="BZ10" t="n">
-        <v>3760</v>
+        <v>3921</v>
       </c>
       <c r="CA10" t="n">
-        <v>4537</v>
+        <v>4644</v>
       </c>
       <c r="CB10" t="n">
-        <v>8297</v>
+        <v>8565</v>
       </c>
       <c r="CC10" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="CD10" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CE10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CF10" t="n">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="CG10" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="CH10" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="CI10" t="n">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="CJ10" t="n">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="CK10" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="CL10" t="n">
         <v>4</v>
       </c>
       <c r="CM10" t="n">
+        <v>15</v>
+      </c>
+      <c r="CN10" t="n">
         <v>13</v>
       </c>
-      <c r="CN10" t="n">
-        <v>12</v>
-      </c>
       <c r="CO10" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="CP10" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="CQ10" t="n">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="CR10" t="n">
-        <v>1277</v>
+        <v>1350</v>
       </c>
       <c r="CS10" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CT10" t="n">
         <v>1</v>
       </c>
       <c r="CU10" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="CV10" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="CW10" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="CX10" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="CY10" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="CZ10" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="DA10" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="DB10" t="n">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="DC10" t="n">
-        <v>2609</v>
+        <v>2746</v>
       </c>
       <c r="DD10" t="n">
-        <v>5085</v>
+        <v>5333</v>
       </c>
       <c r="DE10" t="n">
-        <v>4976</v>
+        <v>5105</v>
       </c>
       <c r="DF10" t="n">
-        <v>10061</v>
+        <v>10438</v>
       </c>
       <c r="DG10" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="DH10" t="n">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="DI10" t="n">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="DJ10" t="n">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="DK10" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="DL10" t="n">
         <v>49427</v>
       </c>
       <c r="DM10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN10" t="n">
         <v>0</v>
@@ -5003,22 +5003,22 @@
         </is>
       </c>
       <c r="DQ10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="DS10" t="n">
-        <v>11.96</v>
+        <v>11.71</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.74</v>
+        <v>3.62</v>
       </c>
       <c r="DU10" t="n">
-        <v>4.52</v>
+        <v>4.33</v>
       </c>
       <c r="DV10" t="n">
-        <v>13.96</v>
+        <v>14.25</v>
       </c>
       <c r="DW10" t="n">
         <v>1.83</v>
@@ -5027,46 +5027,46 @@
         <v>0.04</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="EC10" t="n">
-        <v>290.52</v>
+        <v>288.25</v>
       </c>
       <c r="ED10" t="n">
-        <v>15.48</v>
+        <v>15.5</v>
       </c>
       <c r="EE10" t="n">
-        <v>8.48</v>
+        <v>8.42</v>
       </c>
       <c r="EF10" t="n">
-        <v>28.74</v>
+        <v>28.96</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="EH10" t="n">
-        <v>50.91</v>
+        <v>51.29</v>
       </c>
       <c r="EI10" t="n">
-        <v>33.83</v>
+        <v>33.92</v>
       </c>
       <c r="EJ10" t="n">
-        <v>17.09</v>
+        <v>17.38</v>
       </c>
       <c r="EK10" t="n">
-        <v>122.48</v>
+        <v>124.08</v>
       </c>
       <c r="EL10" t="n">
-        <v>7.57</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="11">
@@ -5090,7 +5090,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -5099,7 +5099,7 @@
         <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -5111,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N11" t="n">
         <v>25</v>
@@ -5120,10 +5120,10 @@
         <v>6</v>
       </c>
       <c r="P11" t="n">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q11" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="R11" t="n">
         <v>2</v>
@@ -5135,34 +5135,34 @@
         <v>11</v>
       </c>
       <c r="U11" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V11" t="n">
+        <v>31</v>
+      </c>
+      <c r="W11" t="n">
         <v>28</v>
       </c>
-      <c r="W11" t="n">
-        <v>25</v>
-      </c>
       <c r="X11" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y11" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Z11" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AA11" t="n">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="AC11" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>20</v>
@@ -5174,61 +5174,61 @@
         <v>19</v>
       </c>
       <c r="AH11" t="n">
-        <v>55.260869565217</v>
+        <v>55.125</v>
       </c>
       <c r="AI11" t="n">
-        <v>9961</v>
+        <v>10353</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8222</v>
+        <v>8543</v>
       </c>
       <c r="AK11" t="n">
-        <v>82.541913462504</v>
+        <v>82.51714478895001</v>
       </c>
       <c r="AL11" t="n">
-        <v>4749</v>
+        <v>4875</v>
       </c>
       <c r="AM11" t="n">
-        <v>4301</v>
+        <v>4408</v>
       </c>
       <c r="AN11" t="n">
-        <v>90.566435038956</v>
+        <v>90.420512820513</v>
       </c>
       <c r="AO11" t="n">
-        <v>5212</v>
+        <v>5478</v>
       </c>
       <c r="AP11" t="n">
-        <v>3921</v>
+        <v>4135</v>
       </c>
       <c r="AQ11" t="n">
-        <v>75.23023791251001</v>
+        <v>75.483753194597</v>
       </c>
       <c r="AR11" t="n">
-        <v>1058</v>
+        <v>1107</v>
       </c>
       <c r="AS11" t="n">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="AT11" t="n">
-        <v>54.631379962193</v>
+        <v>54.83288166215</v>
       </c>
       <c r="AU11" t="n">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="AV11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AW11" t="n">
-        <v>28.199566160521</v>
+        <v>28.397565922921</v>
       </c>
       <c r="AX11" t="n">
         <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="AZ11" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="BA11" t="n">
         <v>65</v>
@@ -5246,7 +5246,7 @@
         <v>3</v>
       </c>
       <c r="BF11" t="n">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="BG11" t="n">
         <v>2</v>
@@ -5255,64 +5255,64 @@
         <v>5</v>
       </c>
       <c r="BI11" t="n">
-        <v>2279</v>
+        <v>2356</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1131</v>
+        <v>1178</v>
       </c>
       <c r="BK11" t="n">
-        <v>49.627029398859</v>
+        <v>50</v>
       </c>
       <c r="BL11" t="n">
-        <v>1574</v>
+        <v>1632</v>
       </c>
       <c r="BM11" t="n">
-        <v>794</v>
+        <v>831</v>
       </c>
       <c r="BN11" t="n">
-        <v>50.444726810673</v>
+        <v>50.919117647059</v>
       </c>
       <c r="BO11" t="n">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="BP11" t="n">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="BQ11" t="n">
-        <v>47.801418439716</v>
+        <v>47.92817679558</v>
       </c>
       <c r="BR11" t="n">
-        <v>2926</v>
+        <v>3048</v>
       </c>
       <c r="BS11" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BT11" t="n">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="BU11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BV11" t="n">
         <v>1</v>
       </c>
       <c r="BW11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BX11" t="n">
-        <v>6.7765027322404</v>
+        <v>6.7698952879581</v>
       </c>
       <c r="BY11" t="n">
-        <v>1168</v>
+        <v>1231</v>
       </c>
       <c r="BZ11" t="n">
-        <v>2447</v>
+        <v>2579</v>
       </c>
       <c r="CA11" t="n">
-        <v>3869</v>
+        <v>4052</v>
       </c>
       <c r="CB11" t="n">
-        <v>6316</v>
+        <v>6631</v>
       </c>
       <c r="CC11" t="n">
         <v>67</v>
@@ -5324,106 +5324,106 @@
         <v>45</v>
       </c>
       <c r="CF11" t="n">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="CG11" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="CH11" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="CI11" t="n">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="CJ11" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CK11" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="CL11" t="n">
         <v>5</v>
       </c>
       <c r="CM11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN11" t="n">
         <v>15</v>
       </c>
       <c r="CO11" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="CP11" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="CQ11" t="n">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="CR11" t="n">
-        <v>1276</v>
+        <v>1321</v>
       </c>
       <c r="CS11" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="CT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CU11" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="CV11" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="CW11" t="n">
         <v>175</v>
       </c>
       <c r="CX11" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="CY11" t="n">
+        <v>98</v>
+      </c>
+      <c r="CZ11" t="n">
         <v>97</v>
       </c>
-      <c r="CZ11" t="n">
-        <v>96</v>
-      </c>
       <c r="DA11" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="DB11" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="DC11" t="n">
-        <v>1926</v>
+        <v>2014</v>
       </c>
       <c r="DD11" t="n">
-        <v>3777</v>
+        <v>3948</v>
       </c>
       <c r="DE11" t="n">
-        <v>4336</v>
+        <v>4541</v>
       </c>
       <c r="DF11" t="n">
-        <v>8113</v>
+        <v>8489</v>
       </c>
       <c r="DG11" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="DH11" t="n">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="DI11" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1042</v>
+        <v>1081</v>
       </c>
       <c r="DK11" t="n">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="DL11" t="n">
         <v>49108</v>
       </c>
       <c r="DM11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
@@ -5442,67 +5442,67 @@
         <v>1.33</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="DS11" t="n">
-        <v>12.62</v>
+        <v>13.29</v>
       </c>
       <c r="DT11" t="n">
-        <v>3.79</v>
+        <v>3.88</v>
       </c>
       <c r="DU11" t="n">
-        <v>4.62</v>
+        <v>4.79</v>
       </c>
       <c r="DV11" t="n">
-        <v>14.12</v>
+        <v>14.54</v>
       </c>
       <c r="DW11" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="DY11" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="EB11" t="n">
         <v>0.12</v>
       </c>
       <c r="EC11" t="n">
-        <v>342.58</v>
+        <v>355.96</v>
       </c>
       <c r="ED11" t="n">
-        <v>14.12</v>
+        <v>14.58</v>
       </c>
       <c r="EE11" t="n">
-        <v>6.54</v>
+        <v>6.75</v>
       </c>
       <c r="EF11" t="n">
-        <v>21.54</v>
+        <v>22.33</v>
       </c>
       <c r="EG11" t="n">
         <v>2.71</v>
       </c>
       <c r="EH11" t="n">
-        <v>47.12</v>
+        <v>49.08</v>
       </c>
       <c r="EI11" t="n">
-        <v>33.08</v>
+        <v>34.62</v>
       </c>
       <c r="EJ11" t="n">
-        <v>14.04</v>
+        <v>14.46</v>
       </c>
       <c r="EK11" t="n">
-        <v>121.92</v>
+        <v>127</v>
       </c>
       <c r="EL11" t="n">
-        <v>5.71</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="12">
@@ -5520,13 +5520,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="n">
         <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -5535,7 +5535,7 @@
         <v>19</v>
       </c>
       <c r="I12" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N12" t="n">
         <v>24</v>
@@ -5556,10 +5556,10 @@
         <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q12" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R12" t="n">
         <v>3</v>
@@ -5571,103 +5571,103 @@
         <v>13</v>
       </c>
       <c r="U12" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X12" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y12" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z12" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AA12" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AB12" t="n">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="AC12" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH12" t="n">
-        <v>45.434782608696</v>
+        <v>45.125</v>
       </c>
       <c r="AI12" t="n">
-        <v>9089</v>
+        <v>9409</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7449</v>
+        <v>7714</v>
       </c>
       <c r="AK12" t="n">
-        <v>81.95621080426901</v>
+        <v>81.985333191625</v>
       </c>
       <c r="AL12" t="n">
-        <v>4513</v>
+        <v>4705</v>
       </c>
       <c r="AM12" t="n">
-        <v>4081</v>
+        <v>4260</v>
       </c>
       <c r="AN12" t="n">
-        <v>90.427653445602</v>
+        <v>90.541976620616</v>
       </c>
       <c r="AO12" t="n">
-        <v>4576</v>
+        <v>4704</v>
       </c>
       <c r="AP12" t="n">
-        <v>3368</v>
+        <v>3454</v>
       </c>
       <c r="AQ12" t="n">
-        <v>73.601398601399</v>
+        <v>73.426870748299</v>
       </c>
       <c r="AR12" t="n">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="AS12" t="n">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="AT12" t="n">
-        <v>46.820027063599</v>
+        <v>47.389033942559</v>
       </c>
       <c r="AU12" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AW12" t="n">
-        <v>28.421052631579</v>
+        <v>28.135593220339</v>
       </c>
       <c r="AX12" t="n">
         <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AZ12" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BA12" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BB12" t="n">
         <v>4</v>
@@ -5682,100 +5682,100 @@
         <v>4</v>
       </c>
       <c r="BF12" t="n">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="BG12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH12" t="n">
         <v>1</v>
       </c>
       <c r="BI12" t="n">
-        <v>2144</v>
+        <v>2207</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1031</v>
+        <v>1061</v>
       </c>
       <c r="BK12" t="n">
-        <v>48.087686567164</v>
+        <v>48.074309016765</v>
       </c>
       <c r="BL12" t="n">
-        <v>1497</v>
+        <v>1542</v>
       </c>
       <c r="BM12" t="n">
-        <v>727</v>
+        <v>750</v>
       </c>
       <c r="BN12" t="n">
-        <v>48.563794255177</v>
+        <v>48.63813229572</v>
       </c>
       <c r="BO12" t="n">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="BP12" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="BQ12" t="n">
-        <v>46.986089644513</v>
+        <v>46.766917293233</v>
       </c>
       <c r="BR12" t="n">
-        <v>2740</v>
+        <v>2829</v>
       </c>
       <c r="BS12" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BT12" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="BU12" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BV12" t="n">
         <v>1</v>
       </c>
       <c r="BW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX12" t="n">
-        <v>6.7533898305085</v>
+        <v>6.7363143631436</v>
       </c>
       <c r="BY12" t="n">
-        <v>2173</v>
+        <v>2354</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4644</v>
+        <v>4962</v>
       </c>
       <c r="CA12" t="n">
-        <v>4607</v>
+        <v>4767</v>
       </c>
       <c r="CB12" t="n">
-        <v>9251</v>
+        <v>9729</v>
       </c>
       <c r="CC12" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="CD12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CE12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CF12" t="n">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="CG12" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="CH12" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="CI12" t="n">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="CJ12" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="CK12" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="CL12" t="n">
         <v>3</v>
@@ -5784,82 +5784,82 @@
         <v>14</v>
       </c>
       <c r="CN12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CO12" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="CP12" t="n">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="CQ12" t="n">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="CR12" t="n">
-        <v>1131</v>
+        <v>1159</v>
       </c>
       <c r="CS12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CT12" t="n">
         <v>0</v>
       </c>
       <c r="CU12" t="n">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="CV12" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CW12" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="CX12" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="CY12" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="CZ12" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="DA12" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="DB12" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="DC12" t="n">
-        <v>2999</v>
+        <v>3212</v>
       </c>
       <c r="DD12" t="n">
-        <v>5947</v>
+        <v>6306</v>
       </c>
       <c r="DE12" t="n">
-        <v>5016</v>
+        <v>5187</v>
       </c>
       <c r="DF12" t="n">
-        <v>10963</v>
+        <v>11493</v>
       </c>
       <c r="DG12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="DH12" t="n">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="DI12" t="n">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1082</v>
+        <v>1103</v>
       </c>
       <c r="DK12" t="n">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="DL12" t="n">
         <v>49069</v>
       </c>
       <c r="DM12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN12" t="n">
         <v>0</v>
@@ -5875,70 +5875,70 @@
         </is>
       </c>
       <c r="DQ12" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="DS12" t="n">
-        <v>11.17</v>
+        <v>11</v>
       </c>
       <c r="DT12" t="n">
-        <v>3.87</v>
+        <v>3.79</v>
       </c>
       <c r="DU12" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="DV12" t="n">
-        <v>12.57</v>
+        <v>12.29</v>
       </c>
       <c r="DW12" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="DY12" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="DZ12" t="n">
         <v>1.17</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="EC12" t="n">
-        <v>323.87</v>
+        <v>321.42</v>
       </c>
       <c r="ED12" t="n">
-        <v>13.57</v>
+        <v>13.25</v>
       </c>
       <c r="EE12" t="n">
-        <v>8.48</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="EF12" t="n">
-        <v>25.3</v>
+        <v>25.17</v>
       </c>
       <c r="EG12" t="n">
-        <v>3.78</v>
+        <v>3.79</v>
       </c>
       <c r="EH12" t="n">
-        <v>44.83</v>
+        <v>44.21</v>
       </c>
       <c r="EI12" t="n">
-        <v>31.61</v>
+        <v>31.25</v>
       </c>
       <c r="EJ12" t="n">
-        <v>13.22</v>
+        <v>12.96</v>
       </c>
       <c r="EK12" t="n">
-        <v>119.13</v>
+        <v>117.88</v>
       </c>
       <c r="EL12" t="n">
-        <v>5.39</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="13">
@@ -5956,13 +5956,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>24</v>
       </c>
       <c r="I13" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -5992,10 +5992,10 @@
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R13" t="n">
         <v>7</v>
@@ -6007,34 +6007,34 @@
         <v>15</v>
       </c>
       <c r="U13" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V13" t="n">
         <v>35</v>
       </c>
       <c r="W13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y13" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Z13" t="n">
         <v>60</v>
       </c>
       <c r="AA13" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AB13" t="n">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AC13" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -6046,64 +6046,64 @@
         <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>45.217391304348</v>
+        <v>45.291666666667</v>
       </c>
       <c r="AI13" t="n">
-        <v>8860</v>
+        <v>9335</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7176</v>
+        <v>7555</v>
       </c>
       <c r="AK13" t="n">
-        <v>80.99322799097099</v>
+        <v>80.93197643278</v>
       </c>
       <c r="AL13" t="n">
-        <v>4981</v>
+        <v>5316</v>
       </c>
       <c r="AM13" t="n">
-        <v>4483</v>
+        <v>4778</v>
       </c>
       <c r="AN13" t="n">
-        <v>90.00200762899</v>
+        <v>89.879608728367</v>
       </c>
       <c r="AO13" t="n">
-        <v>3879</v>
+        <v>4019</v>
       </c>
       <c r="AP13" t="n">
-        <v>2693</v>
+        <v>2777</v>
       </c>
       <c r="AQ13" t="n">
-        <v>69.425109564321</v>
+        <v>69.09679024633</v>
       </c>
       <c r="AR13" t="n">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="AS13" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="AT13" t="n">
-        <v>47.459893048128</v>
+        <v>46.606914212548</v>
       </c>
       <c r="AU13" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AV13" t="n">
         <v>85</v>
       </c>
       <c r="AW13" t="n">
-        <v>27.156549520767</v>
+        <v>26.729559748428</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="AZ13" t="n">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="BA13" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BB13" t="n">
         <v>5</v>
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="BF13" t="n">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="BG13" t="n">
         <v>2</v>
@@ -6127,43 +6127,43 @@
         <v>2</v>
       </c>
       <c r="BI13" t="n">
-        <v>2204</v>
+        <v>2289</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1088</v>
+        <v>1132</v>
       </c>
       <c r="BK13" t="n">
-        <v>49.364791288566</v>
+        <v>49.453910004369</v>
       </c>
       <c r="BL13" t="n">
-        <v>1618</v>
+        <v>1685</v>
       </c>
       <c r="BM13" t="n">
-        <v>812</v>
+        <v>850</v>
       </c>
       <c r="BN13" t="n">
-        <v>50.185414091471</v>
+        <v>50.445103857567</v>
       </c>
       <c r="BO13" t="n">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="BP13" t="n">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="BQ13" t="n">
-        <v>47.098976109215</v>
+        <v>46.688741721854</v>
       </c>
       <c r="BR13" t="n">
-        <v>2717</v>
+        <v>2848</v>
       </c>
       <c r="BS13" t="n">
         <v>36</v>
       </c>
       <c r="BT13" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="BU13" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="BV13" t="n">
         <v>0</v>
@@ -6172,46 +6172,46 @@
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>6.7704735376045</v>
+        <v>6.7630026809651</v>
       </c>
       <c r="BY13" t="n">
-        <v>2132</v>
+        <v>2258</v>
       </c>
       <c r="BZ13" t="n">
-        <v>4693</v>
+        <v>4948</v>
       </c>
       <c r="CA13" t="n">
-        <v>4381</v>
+        <v>4555</v>
       </c>
       <c r="CB13" t="n">
-        <v>9074</v>
+        <v>9503</v>
       </c>
       <c r="CC13" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="CD13" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="CE13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CF13" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="CG13" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="CH13" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="CI13" t="n">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="CJ13" t="n">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="CK13" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="CL13" t="n">
         <v>2</v>
@@ -6223,79 +6223,79 @@
         <v>10</v>
       </c>
       <c r="CO13" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="CP13" t="n">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="CQ13" t="n">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="CR13" t="n">
-        <v>1083</v>
+        <v>1128</v>
       </c>
       <c r="CS13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CT13" t="n">
         <v>3</v>
       </c>
       <c r="CU13" t="n">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="CV13" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="CW13" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="CX13" t="n">
         <v>105</v>
       </c>
       <c r="CY13" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="CZ13" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="DA13" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="DB13" t="n">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="DC13" t="n">
-        <v>3066</v>
+        <v>3245</v>
       </c>
       <c r="DD13" t="n">
-        <v>6054</v>
+        <v>6379</v>
       </c>
       <c r="DE13" t="n">
-        <v>4689</v>
+        <v>4869</v>
       </c>
       <c r="DF13" t="n">
-        <v>10743</v>
+        <v>11248</v>
       </c>
       <c r="DG13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="DH13" t="n">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="DI13" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="DJ13" t="n">
-        <v>944</v>
+        <v>1001</v>
       </c>
       <c r="DK13" t="n">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="DL13" t="n">
         <v>49333</v>
       </c>
       <c r="DM13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN13" t="n">
         <v>0</v>
@@ -6311,70 +6311,70 @@
         </is>
       </c>
       <c r="DQ13" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="DR13" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="DS13" t="n">
-        <v>10.22</v>
+        <v>9.92</v>
       </c>
       <c r="DT13" t="n">
-        <v>3.61</v>
+        <v>3.5</v>
       </c>
       <c r="DU13" t="n">
-        <v>3.43</v>
+        <v>3.33</v>
       </c>
       <c r="DV13" t="n">
-        <v>15.48</v>
+        <v>15.42</v>
       </c>
       <c r="DW13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="DX13" t="n">
         <v>0</v>
       </c>
       <c r="DY13" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="EB13" t="n">
         <v>0.04</v>
       </c>
       <c r="EC13" t="n">
-        <v>312</v>
+        <v>314.79</v>
       </c>
       <c r="ED13" t="n">
-        <v>15.96</v>
+        <v>15.88</v>
       </c>
       <c r="EE13" t="n">
-        <v>8.43</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="EF13" t="n">
-        <v>27.43</v>
+        <v>27.38</v>
       </c>
       <c r="EG13" t="n">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="EH13" t="n">
-        <v>47.3</v>
+        <v>47.17</v>
       </c>
       <c r="EI13" t="n">
-        <v>35.3</v>
+        <v>35.42</v>
       </c>
       <c r="EJ13" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="EK13" t="n">
-        <v>118.13</v>
+        <v>118.67</v>
       </c>
       <c r="EL13" t="n">
-        <v>5.52</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="14">
@@ -6831,7 +6831,7 @@
         <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
         <v>30</v>
@@ -6840,10 +6840,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -6855,19 +6855,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N15" t="n">
         <v>12</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>148</v>
       </c>
       <c r="Q15" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
@@ -6876,7 +6876,7 @@
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
         <v>40</v>
@@ -6888,22 +6888,22 @@
         <v>29</v>
       </c>
       <c r="X15" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y15" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z15" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA15" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB15" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AC15" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AD15" t="n">
         <v>9</v>
@@ -6918,70 +6918,70 @@
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>43.217391304348</v>
+        <v>43.416666666667</v>
       </c>
       <c r="AI15" t="n">
-        <v>8044</v>
+        <v>8420</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6349</v>
+        <v>6664</v>
       </c>
       <c r="AK15" t="n">
-        <v>78.92839383391301</v>
+        <v>79.14489311163901</v>
       </c>
       <c r="AL15" t="n">
-        <v>3985</v>
+        <v>4190</v>
       </c>
       <c r="AM15" t="n">
-        <v>3565</v>
+        <v>3748</v>
       </c>
       <c r="AN15" t="n">
-        <v>89.460476787955</v>
+        <v>89.45107398568</v>
       </c>
       <c r="AO15" t="n">
-        <v>4059</v>
+        <v>4230</v>
       </c>
       <c r="AP15" t="n">
-        <v>2784</v>
+        <v>2916</v>
       </c>
       <c r="AQ15" t="n">
-        <v>68.58832224685899</v>
+        <v>68.936170212766</v>
       </c>
       <c r="AR15" t="n">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="AS15" t="n">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="AT15" t="n">
-        <v>44.686648501362</v>
+        <v>45.3125</v>
       </c>
       <c r="AU15" t="n">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="AV15" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW15" t="n">
-        <v>21.052631578947</v>
+        <v>20.813397129187</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AZ15" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="BA15" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="BB15" t="n">
         <v>4</v>
       </c>
       <c r="BC15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD15" t="n">
         <v>4</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="BF15" t="n">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="BG15" t="n">
         <v>2</v>
@@ -6999,91 +6999,91 @@
         <v>6</v>
       </c>
       <c r="BI15" t="n">
-        <v>2214</v>
+        <v>2291</v>
       </c>
       <c r="BJ15" t="n">
-        <v>1116</v>
+        <v>1146</v>
       </c>
       <c r="BK15" t="n">
-        <v>50.406504065041</v>
+        <v>50.021824530773</v>
       </c>
       <c r="BL15" t="n">
-        <v>1474</v>
+        <v>1532</v>
       </c>
       <c r="BM15" t="n">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="BN15" t="n">
-        <v>50.610583446404</v>
+        <v>50.065274151436</v>
       </c>
       <c r="BO15" t="n">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="BP15" t="n">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="BQ15" t="n">
-        <v>50</v>
+        <v>49.934123847167</v>
       </c>
       <c r="BR15" t="n">
-        <v>2882</v>
+        <v>3001</v>
       </c>
       <c r="BS15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BT15" t="n">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="BU15" t="n">
+        <v>43</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>6.7422969187675</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>2572</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>5229</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>4170</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>9399</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>61</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>46</v>
+      </c>
+      <c r="CE15" t="n">
         <v>41</v>
       </c>
-      <c r="BV15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>6.7377192982456</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>2435</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>5015</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>4063</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>9078</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>58</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>43</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>38</v>
-      </c>
       <c r="CF15" t="n">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="CG15" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="CH15" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="CI15" t="n">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="CJ15" t="n">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="CK15" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="CL15" t="n">
         <v>2</v>
@@ -7092,82 +7092,82 @@
         <v>11</v>
       </c>
       <c r="CN15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CO15" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="CP15" t="n">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="CQ15" t="n">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="CR15" t="n">
-        <v>1057</v>
+        <v>1123</v>
       </c>
       <c r="CS15" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CT15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CU15" t="n">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="CV15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="CW15" t="n">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="CX15" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="CY15" t="n">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="CZ15" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="DA15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="DB15" t="n">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="DC15" t="n">
-        <v>3192</v>
+        <v>3364</v>
       </c>
       <c r="DD15" t="n">
-        <v>6214</v>
+        <v>6480</v>
       </c>
       <c r="DE15" t="n">
-        <v>4525</v>
+        <v>4651</v>
       </c>
       <c r="DF15" t="n">
-        <v>10739</v>
+        <v>11131</v>
       </c>
       <c r="DG15" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="DH15" t="n">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="DI15" t="n">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="DJ15" t="n">
-        <v>989</v>
+        <v>1031</v>
       </c>
       <c r="DK15" t="n">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="DL15" t="n">
         <v>49360</v>
       </c>
       <c r="DM15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
@@ -7183,28 +7183,28 @@
         </is>
       </c>
       <c r="DQ15" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="DR15" t="n">
         <v>1.25</v>
       </c>
       <c r="DS15" t="n">
-        <v>10.75</v>
+        <v>10.96</v>
       </c>
       <c r="DT15" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="DU15" t="n">
-        <v>3.5</v>
+        <v>3.71</v>
       </c>
       <c r="DV15" t="n">
-        <v>10.25</v>
+        <v>10.83</v>
       </c>
       <c r="DW15" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="DY15" t="n">
         <v>1.67</v>
@@ -7219,34 +7219,34 @@
         <v>0.08</v>
       </c>
       <c r="EC15" t="n">
-        <v>264.54</v>
+        <v>277.67</v>
       </c>
       <c r="ED15" t="n">
-        <v>13.88</v>
+        <v>14.25</v>
       </c>
       <c r="EE15" t="n">
-        <v>7.25</v>
+        <v>7.54</v>
       </c>
       <c r="EF15" t="n">
-        <v>24.46</v>
+        <v>25.38</v>
       </c>
       <c r="EG15" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="EH15" t="n">
-        <v>46.5</v>
+        <v>47.75</v>
       </c>
       <c r="EI15" t="n">
-        <v>31.08</v>
+        <v>31.96</v>
       </c>
       <c r="EJ15" t="n">
-        <v>15.42</v>
+        <v>15.79</v>
       </c>
       <c r="EK15" t="n">
-        <v>120.08</v>
+        <v>125.04</v>
       </c>
       <c r="EL15" t="n">
-        <v>4.79</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="16">
@@ -7579,10 +7579,10 @@
         <v>5485</v>
       </c>
       <c r="DE16" t="n">
-        <v>4733</v>
+        <v>4734</v>
       </c>
       <c r="DF16" t="n">
-        <v>10218</v>
+        <v>10219</v>
       </c>
       <c r="DG16" t="n">
         <v>55</v>
@@ -7700,22 +7700,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" t="n">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -7730,52 +7730,52 @@
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q17" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R17" t="n">
         <v>6</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T17" t="n">
         <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AA17" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="AC17" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
@@ -7790,70 +7790,70 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>45.521739130435</v>
+        <v>45.458333333333</v>
       </c>
       <c r="AI17" t="n">
-        <v>8718</v>
+        <v>9106</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6802</v>
+        <v>7098</v>
       </c>
       <c r="AK17" t="n">
-        <v>78.02248222069301</v>
+        <v>77.94860531517701</v>
       </c>
       <c r="AL17" t="n">
-        <v>4642</v>
+        <v>4822</v>
       </c>
       <c r="AM17" t="n">
-        <v>4102</v>
+        <v>4265</v>
       </c>
       <c r="AN17" t="n">
-        <v>88.367083153813</v>
+        <v>88.448776441311</v>
       </c>
       <c r="AO17" t="n">
-        <v>4076</v>
+        <v>4284</v>
       </c>
       <c r="AP17" t="n">
-        <v>2700</v>
+        <v>2833</v>
       </c>
       <c r="AQ17" t="n">
-        <v>66.241413150147</v>
+        <v>66.129785247432</v>
       </c>
       <c r="AR17" t="n">
-        <v>849</v>
+        <v>888</v>
       </c>
       <c r="AS17" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="AT17" t="n">
-        <v>42.049469964664</v>
+        <v>41.554054054054</v>
       </c>
       <c r="AU17" t="n">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="AV17" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>20.215633423181</v>
+        <v>20.876288659794</v>
       </c>
       <c r="AX17" t="n">
         <v>6</v>
       </c>
       <c r="AY17" t="n">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AZ17" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="BA17" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD17" t="n">
         <v>3</v>
@@ -7862,7 +7862,7 @@
         <v>2</v>
       </c>
       <c r="BF17" t="n">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="BG17" t="n">
         <v>2</v>
@@ -7871,40 +7871,40 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>2125</v>
+        <v>2231</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1038</v>
+        <v>1095</v>
       </c>
       <c r="BK17" t="n">
-        <v>48.847058823529</v>
+        <v>49.081129538324</v>
       </c>
       <c r="BL17" t="n">
-        <v>1435</v>
+        <v>1486</v>
       </c>
       <c r="BM17" t="n">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="BN17" t="n">
-        <v>49.198606271777</v>
+        <v>49.192462987887</v>
       </c>
       <c r="BO17" t="n">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="BP17" t="n">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="BQ17" t="n">
-        <v>48.115942028986</v>
+        <v>48.859060402685</v>
       </c>
       <c r="BR17" t="n">
-        <v>3004</v>
+        <v>3139</v>
       </c>
       <c r="BS17" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BT17" t="n">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="BU17" t="n">
         <v>49</v>
@@ -7916,19 +7916,19 @@
         <v>1</v>
       </c>
       <c r="BX17" t="n">
-        <v>6.724011299435</v>
+        <v>6.7245945945946</v>
       </c>
       <c r="BY17" t="n">
-        <v>2298</v>
+        <v>2403</v>
       </c>
       <c r="BZ17" t="n">
-        <v>4608</v>
+        <v>4809</v>
       </c>
       <c r="CA17" t="n">
-        <v>4226</v>
+        <v>4426</v>
       </c>
       <c r="CB17" t="n">
-        <v>8834</v>
+        <v>9235</v>
       </c>
       <c r="CC17" t="n">
         <v>62</v>
@@ -7940,22 +7940,22 @@
         <v>40</v>
       </c>
       <c r="CF17" t="n">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="CG17" t="n">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="CH17" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="CI17" t="n">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="CJ17" t="n">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="CK17" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="CL17" t="n">
         <v>6</v>
@@ -7964,82 +7964,82 @@
         <v>7</v>
       </c>
       <c r="CN17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CO17" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="CP17" t="n">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="CQ17" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="CR17" t="n">
-        <v>1164</v>
+        <v>1218</v>
       </c>
       <c r="CS17" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CT17" t="n">
         <v>1</v>
       </c>
       <c r="CU17" t="n">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="CV17" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="CW17" t="n">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="CX17" t="n">
+        <v>144</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>154</v>
+      </c>
+      <c r="CZ17" t="n">
         <v>136</v>
       </c>
-      <c r="CY17" t="n">
-        <v>144</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>127</v>
-      </c>
       <c r="DA17" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="DB17" t="n">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="DC17" t="n">
-        <v>3172</v>
+        <v>3311</v>
       </c>
       <c r="DD17" t="n">
-        <v>5975</v>
+        <v>6240</v>
       </c>
       <c r="DE17" t="n">
-        <v>4593</v>
+        <v>4815</v>
       </c>
       <c r="DF17" t="n">
-        <v>10568</v>
+        <v>11055</v>
       </c>
       <c r="DG17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="DH17" t="n">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="DI17" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="DJ17" t="n">
-        <v>1004</v>
+        <v>1047</v>
       </c>
       <c r="DK17" t="n">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="DL17" t="n">
         <v>49110</v>
       </c>
       <c r="DM17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN17" t="n">
         <v>0</v>
@@ -8055,80 +8055,80 @@
         </is>
       </c>
       <c r="DQ17" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="DR17" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="DS17" t="n">
-        <v>8.57</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="DT17" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="DU17" t="n">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="DV17" t="n">
-        <v>13.3</v>
+        <v>13.21</v>
       </c>
       <c r="DW17" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="DX17" t="n">
         <v>0.04</v>
       </c>
       <c r="DY17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="EC17" t="n">
-        <v>295.74</v>
+        <v>295.75</v>
       </c>
       <c r="ED17" t="n">
-        <v>14.65</v>
+        <v>14.38</v>
       </c>
       <c r="EE17" t="n">
-        <v>7.13</v>
+        <v>7.29</v>
       </c>
       <c r="EF17" t="n">
-        <v>29.22</v>
+        <v>29.5</v>
       </c>
       <c r="EG17" t="n">
-        <v>4.17</v>
+        <v>4.29</v>
       </c>
       <c r="EH17" t="n">
-        <v>45.13</v>
+        <v>45.62</v>
       </c>
       <c r="EI17" t="n">
-        <v>30.7</v>
+        <v>30.46</v>
       </c>
       <c r="EJ17" t="n">
-        <v>14.43</v>
+        <v>15.17</v>
       </c>
       <c r="EK17" t="n">
-        <v>130.61</v>
+        <v>130.79</v>
       </c>
       <c r="EL17" t="n">
-        <v>4.43</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2693</v>
+        <v>2689</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -8139,340 +8139,340 @@
         <v>24</v>
       </c>
       <c r="E18" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>245</v>
+      </c>
+      <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="n">
-        <v>14</v>
-      </c>
-      <c r="I18" t="n">
-        <v>338</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5</v>
-      </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N18" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>5</v>
       </c>
       <c r="P18" t="n">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="Q18" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R18" t="n">
         <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="V18" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="W18" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="X18" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="Y18" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>353</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>117</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>43.791666666667</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>8208</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>6235</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>75.962475633528</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>3437</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>3009</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>87.547279604306</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4771</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>3226</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>67.616851813037</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>857</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>369</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>43.057176196033</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>417</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>106</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>25.419664268585</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>445</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>146</v>
       </c>
-      <c r="Z18" t="n">
-        <v>103</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>161</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>344</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>116</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>53.25</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>10348</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8748</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>84.538074990336</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>5146</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>4756</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>92.42129809560799</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>5202</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>3992</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>76.73971549404099</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>797</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>50.313676286073</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>492</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>111</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>22.560975609756</v>
-      </c>
-      <c r="AX18" t="n">
+      <c r="BA18" t="n">
+        <v>68</v>
+      </c>
+      <c r="BB18" t="n">
         <v>3</v>
       </c>
-      <c r="AY18" t="n">
-        <v>305</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>179</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>75</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>5</v>
-      </c>
       <c r="BC18" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BD18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE18" t="n">
         <v>4</v>
       </c>
       <c r="BF18" t="n">
-        <v>495</v>
+        <v>678</v>
       </c>
       <c r="BG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH18" t="n">
         <v>3</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BI18" t="n">
+        <v>2604</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1284</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>49.308755760369</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1772</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>872</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>49.20993227991</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>832</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>412</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>49.519230769231</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>3266</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>24</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>301</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
         <v>2</v>
       </c>
-      <c r="BI18" t="n">
-        <v>2243</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>50.557289344628</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>1609</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>841</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>52.268489745183</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>634</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>293</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>46.214511041009</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>2782</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>45</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>310</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>53</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>1</v>
-      </c>
       <c r="BX18" t="n">
-        <v>6.7562666666667</v>
+        <v>6.70027100271</v>
       </c>
       <c r="BY18" t="n">
-        <v>1794</v>
+        <v>1903</v>
       </c>
       <c r="BZ18" t="n">
-        <v>3682</v>
+        <v>4003</v>
       </c>
       <c r="CA18" t="n">
-        <v>3855</v>
+        <v>4948</v>
       </c>
       <c r="CB18" t="n">
-        <v>7537</v>
+        <v>8951</v>
       </c>
       <c r="CC18" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="CD18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CE18" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="CF18" t="n">
-        <v>651</v>
+        <v>554</v>
       </c>
       <c r="CG18" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="CH18" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="CI18" t="n">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="CJ18" t="n">
-        <v>276</v>
+        <v>423</v>
       </c>
       <c r="CK18" t="n">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="CL18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CM18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CO18" t="n">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="CP18" t="n">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="CQ18" t="n">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="CR18" t="n">
-        <v>1201</v>
+        <v>1224</v>
       </c>
       <c r="CS18" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="CT18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="CV18" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="CW18" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="CX18" t="n">
         <v>97</v>
       </c>
       <c r="CY18" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="CZ18" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="DA18" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="DB18" t="n">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="DC18" t="n">
-        <v>2560</v>
+        <v>2811</v>
       </c>
       <c r="DD18" t="n">
-        <v>4900</v>
+        <v>5430</v>
       </c>
       <c r="DE18" t="n">
-        <v>4289</v>
+        <v>5447</v>
       </c>
       <c r="DF18" t="n">
-        <v>9189</v>
+        <v>10877</v>
       </c>
       <c r="DG18" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="DH18" t="n">
-        <v>382</v>
+        <v>502</v>
       </c>
       <c r="DI18" t="n">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="DJ18" t="n">
-        <v>1037</v>
+        <v>1071</v>
       </c>
       <c r="DK18" t="n">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="DL18" t="n">
-        <v>49334</v>
+        <v>49072</v>
       </c>
       <c r="DM18" t="n">
         <v>24</v>
@@ -8491,80 +8491,80 @@
         </is>
       </c>
       <c r="DQ18" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="DY18" t="n">
         <v>1.12</v>
       </c>
-      <c r="DR18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>14.08</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>2.38</v>
-      </c>
       <c r="DZ18" t="n">
-        <v>1.67</v>
+        <v>0.79</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="EC18" t="n">
-        <v>364.5</v>
+        <v>259.79</v>
       </c>
       <c r="ED18" t="n">
-        <v>12.71</v>
+        <v>18.54</v>
       </c>
       <c r="EE18" t="n">
-        <v>7.46</v>
+        <v>6.08</v>
       </c>
       <c r="EF18" t="n">
-        <v>20.62</v>
+        <v>28.25</v>
       </c>
       <c r="EG18" t="n">
-        <v>3.12</v>
+        <v>2.83</v>
       </c>
       <c r="EH18" t="n">
-        <v>47.25</v>
+        <v>53.5</v>
       </c>
       <c r="EI18" t="n">
-        <v>35.04</v>
+        <v>36.33</v>
       </c>
       <c r="EJ18" t="n">
-        <v>12.21</v>
+        <v>17.17</v>
       </c>
       <c r="EK18" t="n">
-        <v>115.92</v>
+        <v>136.08</v>
       </c>
       <c r="EL18" t="n">
-        <v>6.71</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -8572,346 +8572,346 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>229</v>
+        <v>338</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="Q19" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="R19" t="n">
         <v>3</v>
       </c>
       <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="n">
+        <v>13</v>
+      </c>
+      <c r="U19" t="n">
+        <v>57</v>
+      </c>
+      <c r="V19" t="n">
+        <v>39</v>
+      </c>
+      <c r="W19" t="n">
+        <v>40</v>
+      </c>
+      <c r="X19" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>146</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>161</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>344</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>116</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10348</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8748</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>84.538074990336</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>5146</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>4756</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>92.42129809560799</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>5202</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3992</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>76.73971549404099</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>797</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>50.313676286073</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>492</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>111</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>22.560975609756</v>
+      </c>
+      <c r="AX19" t="n">
         <v>3</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AY19" t="n">
+        <v>305</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>179</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC19" t="n">
         <v>7</v>
-      </c>
-      <c r="U19" t="n">
-        <v>24</v>
-      </c>
-      <c r="V19" t="n">
-        <v>18</v>
-      </c>
-      <c r="W19" t="n">
-        <v>17</v>
-      </c>
-      <c r="X19" t="n">
-        <v>54</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>96</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>79</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>128</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>338</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>43.347826086957</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>7831</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>5967</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>76.19716511301201</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>3308</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>2902</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>87.726723095526</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>4523</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>3065</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>67.76475790404599</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>815</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>357</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>43.803680981595</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>389</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>98</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>25.192802056555</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>428</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>141</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>68</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>18</v>
       </c>
       <c r="BD19" t="n">
         <v>5</v>
       </c>
       <c r="BE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>495</v>
+      </c>
+      <c r="BG19" t="n">
         <v>3</v>
       </c>
-      <c r="BF19" t="n">
-        <v>652</v>
-      </c>
-      <c r="BG19" t="n">
+      <c r="BH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>2243</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1134</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>50.557289344628</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1609</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>841</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>52.268489745183</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>634</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>293</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>46.214511041009</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>2782</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>45</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>310</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>53</v>
+      </c>
+      <c r="BV19" t="n">
         <v>1</v>
       </c>
-      <c r="BH19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>2483</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>1223</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>49.254933548127</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>1696</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>832</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>49.056603773585</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>787</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>391</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>49.682337992376</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>3100</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>21</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>292</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>44</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
       <c r="BW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>6.7562666666667</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>1794</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>3682</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>3855</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>7537</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>57</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>40</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>32</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>651</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>112</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>127</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>410</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>276</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>130</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>5</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>154</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>253</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>572</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>1201</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>18</v>
+      </c>
+      <c r="CT19" t="n">
         <v>2</v>
       </c>
-      <c r="BX19" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>1866</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>3910</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>4805</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>8715</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>61</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>39</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>41</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>520</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>121</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>100</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>428</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>404</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>178</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>6</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>11</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>174</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>221</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>508</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>1158</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>50</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>0</v>
-      </c>
       <c r="CU19" t="n">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="CV19" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CW19" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="CX19" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="CY19" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CZ19" t="n">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="DA19" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="DB19" t="n">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="DC19" t="n">
-        <v>2733</v>
+        <v>2560</v>
       </c>
       <c r="DD19" t="n">
-        <v>5259</v>
+        <v>4900</v>
       </c>
       <c r="DE19" t="n">
-        <v>5279</v>
+        <v>4289</v>
       </c>
       <c r="DF19" t="n">
-        <v>10538</v>
+        <v>9189</v>
       </c>
       <c r="DG19" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="DH19" t="n">
-        <v>478</v>
+        <v>382</v>
       </c>
       <c r="DI19" t="n">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="DJ19" t="n">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="DK19" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="DL19" t="n">
-        <v>49072</v>
+        <v>49334</v>
       </c>
       <c r="DM19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN19" t="n">
         <v>0</v>
@@ -8927,70 +8927,70 @@
         </is>
       </c>
       <c r="DQ19" t="n">
-        <v>0.57</v>
+        <v>1.12</v>
       </c>
       <c r="DR19" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="DS19" t="n">
-        <v>9.960000000000001</v>
+        <v>14.08</v>
       </c>
       <c r="DT19" t="n">
-        <v>2.35</v>
+        <v>3.71</v>
       </c>
       <c r="DU19" t="n">
-        <v>4.78</v>
+        <v>4.83</v>
       </c>
       <c r="DV19" t="n">
-        <v>12.7</v>
+        <v>12.92</v>
       </c>
       <c r="DW19" t="n">
-        <v>1.91</v>
+        <v>2.21</v>
       </c>
       <c r="DX19" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="DY19" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="DZ19" t="n">
-        <v>0.74</v>
+        <v>1.67</v>
       </c>
       <c r="EA19" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="EB19" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="EC19" t="n">
-        <v>259.43</v>
+        <v>364.5</v>
       </c>
       <c r="ED19" t="n">
-        <v>18.61</v>
+        <v>12.71</v>
       </c>
       <c r="EE19" t="n">
-        <v>6.13</v>
+        <v>7.46</v>
       </c>
       <c r="EF19" t="n">
-        <v>28.35</v>
+        <v>20.62</v>
       </c>
       <c r="EG19" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="EH19" t="n">
-        <v>53.17</v>
+        <v>47.25</v>
       </c>
       <c r="EI19" t="n">
-        <v>36.17</v>
+        <v>35.04</v>
       </c>
       <c r="EJ19" t="n">
-        <v>17</v>
+        <v>12.21</v>
       </c>
       <c r="EK19" t="n">
-        <v>134.78</v>
+        <v>115.92</v>
       </c>
       <c r="EL19" t="n">
-        <v>5.57</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="20">

--- a/sofascore_team_data/Serie_A_Team_Stats.xlsx
+++ b/sofascore_team_data/Serie_A_Team_Stats.xlsx
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1626,55 +1626,55 @@
         <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O3" t="n">
         <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q3" t="n">
         <v>91</v>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U3" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="V3" t="n">
+        <v>48</v>
+      </c>
+      <c r="W3" t="n">
         <v>45</v>
       </c>
-      <c r="W3" t="n">
-        <v>43</v>
-      </c>
       <c r="X3" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y3" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Z3" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AB3" t="n">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AC3" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -1686,64 +1686,64 @@
         <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>51.086956521739</v>
+        <v>51.708333333333</v>
       </c>
       <c r="AI3" t="n">
-        <v>10977</v>
+        <v>11658</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9573</v>
+        <v>10185</v>
       </c>
       <c r="AK3" t="n">
-        <v>87.209620114785</v>
+        <v>87.364899639732</v>
       </c>
       <c r="AL3" t="n">
-        <v>5272</v>
+        <v>5603</v>
       </c>
       <c r="AM3" t="n">
-        <v>4899</v>
+        <v>5212</v>
       </c>
       <c r="AN3" t="n">
-        <v>92.92488619119899</v>
+        <v>93.0215955738</v>
       </c>
       <c r="AO3" t="n">
-        <v>5705</v>
+        <v>6055</v>
       </c>
       <c r="AP3" t="n">
-        <v>4674</v>
+        <v>4973</v>
       </c>
       <c r="AQ3" t="n">
-        <v>81.92813321647699</v>
+        <v>82.130470685384</v>
       </c>
       <c r="AR3" t="n">
-        <v>695</v>
+        <v>746</v>
       </c>
       <c r="AS3" t="n">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="AT3" t="n">
-        <v>56.978417266187</v>
+        <v>57.640750670241</v>
       </c>
       <c r="AU3" t="n">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="AV3" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AW3" t="n">
-        <v>29.89417989418</v>
+        <v>29.367088607595</v>
       </c>
       <c r="AX3" t="n">
         <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="AZ3" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="BF3" t="n">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="BG3" t="n">
         <v>0</v>
@@ -1767,91 +1767,91 @@
         <v>1</v>
       </c>
       <c r="BI3" t="n">
-        <v>1935</v>
+        <v>2017</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1023</v>
+        <v>1068</v>
       </c>
       <c r="BK3" t="n">
-        <v>52.868217054264</v>
+        <v>52.949925632127</v>
       </c>
       <c r="BL3" t="n">
-        <v>1384</v>
+        <v>1440</v>
       </c>
       <c r="BM3" t="n">
-        <v>730</v>
+        <v>763</v>
       </c>
       <c r="BN3" t="n">
-        <v>52.745664739884</v>
+        <v>52.986111111111</v>
       </c>
       <c r="BO3" t="n">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="BP3" t="n">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="BQ3" t="n">
-        <v>53.176043557169</v>
+        <v>52.859618717504</v>
       </c>
       <c r="BR3" t="n">
-        <v>2427</v>
+        <v>2540</v>
       </c>
       <c r="BS3" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BT3" t="n">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="BU3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX3" t="n">
-        <v>6.9805970149254</v>
+        <v>6.9768571428571</v>
       </c>
       <c r="BY3" t="n">
-        <v>2179</v>
+        <v>2237</v>
       </c>
       <c r="BZ3" t="n">
-        <v>4690</v>
+        <v>4815</v>
       </c>
       <c r="CA3" t="n">
-        <v>4337</v>
+        <v>4479</v>
       </c>
       <c r="CB3" t="n">
-        <v>9027</v>
+        <v>9294</v>
       </c>
       <c r="CC3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CD3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CE3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CF3" t="n">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="CG3" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="CH3" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="CI3" t="n">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="CJ3" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="CK3" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="CL3" t="n">
         <v>4</v>
@@ -1863,79 +1863,79 @@
         <v>10</v>
       </c>
       <c r="CO3" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="CP3" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="CQ3" t="n">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="CR3" t="n">
-        <v>994</v>
+        <v>1040</v>
       </c>
       <c r="CS3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CT3" t="n">
         <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="CV3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CW3" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="CX3" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="CY3" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="CZ3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="DA3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DB3" t="n">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="DC3" t="n">
-        <v>2797</v>
+        <v>2889</v>
       </c>
       <c r="DD3" t="n">
-        <v>5695</v>
+        <v>5870</v>
       </c>
       <c r="DE3" t="n">
-        <v>4690</v>
+        <v>4853</v>
       </c>
       <c r="DF3" t="n">
-        <v>10385</v>
+        <v>10723</v>
       </c>
       <c r="DG3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="DH3" t="n">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="DI3" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DJ3" t="n">
-        <v>973</v>
+        <v>1022</v>
       </c>
       <c r="DK3" t="n">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="DL3" t="n">
         <v>49109</v>
       </c>
       <c r="DM3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN3" t="n">
         <v>0</v>
@@ -1951,70 +1951,70 @@
         </is>
       </c>
       <c r="DQ3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="DS3" t="n">
-        <v>13.57</v>
+        <v>13.29</v>
       </c>
       <c r="DT3" t="n">
-        <v>4.78</v>
+        <v>4.67</v>
       </c>
       <c r="DU3" t="n">
-        <v>4.7</v>
+        <v>4.54</v>
       </c>
       <c r="DV3" t="n">
-        <v>9.609999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="DY3" t="n">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="EC3" t="n">
-        <v>416.22</v>
+        <v>424.38</v>
       </c>
       <c r="ED3" t="n">
-        <v>14.39</v>
+        <v>14.42</v>
       </c>
       <c r="EE3" t="n">
-        <v>6.22</v>
+        <v>6.08</v>
       </c>
       <c r="EF3" t="n">
-        <v>22.65</v>
+        <v>22.54</v>
       </c>
       <c r="EG3" t="n">
-        <v>2.91</v>
+        <v>2.83</v>
       </c>
       <c r="EH3" t="n">
-        <v>44.48</v>
+        <v>44.5</v>
       </c>
       <c r="EI3" t="n">
-        <v>31.74</v>
+        <v>31.79</v>
       </c>
       <c r="EJ3" t="n">
-        <v>12.74</v>
+        <v>12.71</v>
       </c>
       <c r="EK3" t="n">
-        <v>105.52</v>
+        <v>105.83</v>
       </c>
       <c r="EL3" t="n">
-        <v>6.13</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="4">
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
         <v>37</v>
@@ -3695,70 +3695,70 @@
         </is>
       </c>
       <c r="DQ7" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="DS7" t="n">
-        <v>14.57</v>
+        <v>13.96</v>
       </c>
       <c r="DT7" t="n">
-        <v>5.35</v>
+        <v>5.12</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.13</v>
+        <v>3.96</v>
       </c>
       <c r="DV7" t="n">
-        <v>13.83</v>
+        <v>13.25</v>
       </c>
       <c r="DW7" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="DY7" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="DZ7" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="EC7" t="n">
-        <v>467.48</v>
+        <v>448</v>
       </c>
       <c r="ED7" t="n">
-        <v>16.04</v>
+        <v>15.38</v>
       </c>
       <c r="EE7" t="n">
-        <v>7.09</v>
+        <v>6.79</v>
       </c>
       <c r="EF7" t="n">
-        <v>21</v>
+        <v>20.12</v>
       </c>
       <c r="EG7" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="EH7" t="n">
-        <v>48.65</v>
+        <v>46.62</v>
       </c>
       <c r="EI7" t="n">
-        <v>35.13</v>
+        <v>33.67</v>
       </c>
       <c r="EJ7" t="n">
-        <v>13.52</v>
+        <v>12.96</v>
       </c>
       <c r="EK7" t="n">
-        <v>117.74</v>
+        <v>112.83</v>
       </c>
       <c r="EL7" t="n">
-        <v>7.83</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8">
@@ -8124,11 +8124,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -8136,346 +8136,346 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I18" t="n">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
       <c r="M18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="O18" t="n">
         <v>5</v>
       </c>
       <c r="P18" t="n">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="Q18" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="R18" t="n">
         <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="U18" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="V18" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="W18" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="X18" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="Y18" t="n">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="Z18" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="AA18" t="n">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="AB18" t="n">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="AC18" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>10629</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8962</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>84.316492614545</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>5293</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>4889</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>92.367277536369</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5336</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>4073</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>76.330584707646</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>828</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>410</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>49.51690821256</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>112</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>311</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>189</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>78</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC18" t="n">
         <v>7</v>
       </c>
-      <c r="AE18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>43.791666666667</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>8208</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>6235</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>75.962475633528</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>3437</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>3009</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>87.547279604306</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>4771</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>3226</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>67.616851813037</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>857</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>369</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>43.057176196033</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>417</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>106</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>25.419664268585</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>445</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>146</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>68</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>20</v>
-      </c>
       <c r="BD18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE18" t="n">
         <v>4</v>
       </c>
       <c r="BF18" t="n">
-        <v>678</v>
+        <v>512</v>
       </c>
       <c r="BG18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>2340</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1178</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>50.34188034188</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1684</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>878</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>52.137767220903</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>656</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>300</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>45.731707317073</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>2890</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>47</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>322</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>55</v>
+      </c>
+      <c r="BV18" t="n">
         <v>1</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>6.7530927835052</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>1929</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>3994</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>4050</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>8044</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>57</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>40</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>32</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>664</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>116</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>134</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>434</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>288</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>137</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>158</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>268</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>579</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>1218</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>21</v>
+      </c>
+      <c r="CT18" t="n">
         <v>3</v>
       </c>
-      <c r="BI18" t="n">
-        <v>2604</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>1284</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>49.308755760369</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>1772</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>872</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>49.20993227991</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>832</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>412</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>49.519230769231</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>3266</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>24</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>301</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>45</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>6.70027100271</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>1903</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>4003</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>4948</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>8951</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>62</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>39</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>41</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>554</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>121</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>100</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>436</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>423</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>189</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>6</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>11</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>181</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>224</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>525</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>1224</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>52</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>0</v>
-      </c>
       <c r="CU18" t="n">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="CV18" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CW18" t="n">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="CX18" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="CY18" t="n">
+        <v>126</v>
+      </c>
+      <c r="CZ18" t="n">
         <v>118</v>
       </c>
-      <c r="CZ18" t="n">
-        <v>99</v>
-      </c>
       <c r="DA18" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DB18" t="n">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="DC18" t="n">
-        <v>2811</v>
+        <v>2727</v>
       </c>
       <c r="DD18" t="n">
-        <v>5430</v>
+        <v>5260</v>
       </c>
       <c r="DE18" t="n">
-        <v>5447</v>
+        <v>4497</v>
       </c>
       <c r="DF18" t="n">
-        <v>10877</v>
+        <v>9757</v>
       </c>
       <c r="DG18" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="DH18" t="n">
-        <v>502</v>
+        <v>393</v>
       </c>
       <c r="DI18" t="n">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="DJ18" t="n">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="DK18" t="n">
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="DL18" t="n">
-        <v>49072</v>
+        <v>49334</v>
       </c>
       <c r="DM18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="DN18" t="n">
         <v>0</v>
@@ -8491,80 +8491,80 @@
         </is>
       </c>
       <c r="DQ18" t="n">
-        <v>0.62</v>
+        <v>1.16</v>
       </c>
       <c r="DR18" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="DS18" t="n">
-        <v>10.21</v>
+        <v>13.8</v>
       </c>
       <c r="DT18" t="n">
-        <v>2.46</v>
+        <v>3.68</v>
       </c>
       <c r="DU18" t="n">
-        <v>4.88</v>
+        <v>4.72</v>
       </c>
       <c r="DV18" t="n">
-        <v>12.54</v>
+        <v>12.88</v>
       </c>
       <c r="DW18" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.12</v>
+        <v>2.36</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.79</v>
+        <v>1.6</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="EB18" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="EC18" t="n">
-        <v>259.79</v>
+        <v>358.48</v>
       </c>
       <c r="ED18" t="n">
-        <v>18.54</v>
+        <v>12.44</v>
       </c>
       <c r="EE18" t="n">
-        <v>6.08</v>
+        <v>7.56</v>
       </c>
       <c r="EF18" t="n">
-        <v>28.25</v>
+        <v>20.48</v>
       </c>
       <c r="EG18" t="n">
-        <v>2.83</v>
+        <v>3.12</v>
       </c>
       <c r="EH18" t="n">
-        <v>53.5</v>
+        <v>47.12</v>
       </c>
       <c r="EI18" t="n">
-        <v>36.33</v>
+        <v>35.12</v>
       </c>
       <c r="EJ18" t="n">
-        <v>17.17</v>
+        <v>12</v>
       </c>
       <c r="EK18" t="n">
-        <v>136.08</v>
+        <v>115.6</v>
       </c>
       <c r="EL18" t="n">
-        <v>5.54</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2693</v>
+        <v>2689</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -8575,340 +8575,340 @@
         <v>24</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>245</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="n">
-        <v>14</v>
-      </c>
-      <c r="I19" t="n">
-        <v>338</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5</v>
-      </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="Q19" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R19" t="n">
         <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U19" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="V19" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="W19" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="X19" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="Y19" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>353</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>117</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>43.791666666667</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>8208</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>6235</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>75.962475633528</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>3437</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>3009</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>87.547279604306</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>4771</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3226</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>67.616851813037</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>857</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>369</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>43.057176196033</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>417</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>106</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>25.419664268585</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>445</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>146</v>
       </c>
-      <c r="Z19" t="n">
-        <v>103</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>161</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>344</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>116</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>53.25</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>10348</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8748</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>84.538074990336</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>5146</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>4756</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>92.42129809560799</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>5202</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>3992</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>76.73971549404099</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>797</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>50.313676286073</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>492</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>111</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>22.560975609756</v>
-      </c>
-      <c r="AX19" t="n">
+      <c r="BA19" t="n">
+        <v>68</v>
+      </c>
+      <c r="BB19" t="n">
         <v>3</v>
       </c>
-      <c r="AY19" t="n">
-        <v>305</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>179</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>75</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>5</v>
-      </c>
       <c r="BC19" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE19" t="n">
         <v>4</v>
       </c>
       <c r="BF19" t="n">
-        <v>495</v>
+        <v>678</v>
       </c>
       <c r="BG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH19" t="n">
         <v>3</v>
       </c>
-      <c r="BH19" t="n">
+      <c r="BI19" t="n">
+        <v>2604</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1284</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>49.308755760369</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1772</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>872</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>49.20993227991</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>832</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>412</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>49.519230769231</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>3266</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>24</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>301</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
         <v>2</v>
       </c>
-      <c r="BI19" t="n">
-        <v>2243</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>50.557289344628</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>1609</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>841</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>52.268489745183</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>634</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>293</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>46.214511041009</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>2782</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>45</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>310</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>53</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>1</v>
-      </c>
       <c r="BX19" t="n">
-        <v>6.7562666666667</v>
+        <v>6.70027100271</v>
       </c>
       <c r="BY19" t="n">
-        <v>1794</v>
+        <v>1903</v>
       </c>
       <c r="BZ19" t="n">
-        <v>3682</v>
+        <v>4003</v>
       </c>
       <c r="CA19" t="n">
-        <v>3855</v>
+        <v>4948</v>
       </c>
       <c r="CB19" t="n">
-        <v>7537</v>
+        <v>8951</v>
       </c>
       <c r="CC19" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="CD19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CE19" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="CF19" t="n">
-        <v>651</v>
+        <v>554</v>
       </c>
       <c r="CG19" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="CH19" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="CI19" t="n">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="CJ19" t="n">
-        <v>276</v>
+        <v>423</v>
       </c>
       <c r="CK19" t="n">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="CL19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CM19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CO19" t="n">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="CP19" t="n">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="CQ19" t="n">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="CR19" t="n">
-        <v>1201</v>
+        <v>1224</v>
       </c>
       <c r="CS19" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="CT19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU19" t="n">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="CV19" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="CW19" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="CX19" t="n">
         <v>97</v>
       </c>
       <c r="CY19" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="CZ19" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="DA19" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="DB19" t="n">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="DC19" t="n">
-        <v>2560</v>
+        <v>2811</v>
       </c>
       <c r="DD19" t="n">
-        <v>4900</v>
+        <v>5430</v>
       </c>
       <c r="DE19" t="n">
-        <v>4289</v>
+        <v>5447</v>
       </c>
       <c r="DF19" t="n">
-        <v>9189</v>
+        <v>10877</v>
       </c>
       <c r="DG19" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="DH19" t="n">
-        <v>382</v>
+        <v>502</v>
       </c>
       <c r="DI19" t="n">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="DJ19" t="n">
-        <v>1037</v>
+        <v>1071</v>
       </c>
       <c r="DK19" t="n">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="DL19" t="n">
-        <v>49334</v>
+        <v>49072</v>
       </c>
       <c r="DM19" t="n">
         <v>24</v>
@@ -8927,70 +8927,70 @@
         </is>
       </c>
       <c r="DQ19" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="DY19" t="n">
         <v>1.12</v>
       </c>
-      <c r="DR19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>14.08</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>2.38</v>
-      </c>
       <c r="DZ19" t="n">
-        <v>1.67</v>
+        <v>0.79</v>
       </c>
       <c r="EA19" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="EB19" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="EC19" t="n">
-        <v>364.5</v>
+        <v>259.79</v>
       </c>
       <c r="ED19" t="n">
-        <v>12.71</v>
+        <v>18.54</v>
       </c>
       <c r="EE19" t="n">
-        <v>7.46</v>
+        <v>6.08</v>
       </c>
       <c r="EF19" t="n">
-        <v>20.62</v>
+        <v>28.25</v>
       </c>
       <c r="EG19" t="n">
-        <v>3.12</v>
+        <v>2.83</v>
       </c>
       <c r="EH19" t="n">
-        <v>47.25</v>
+        <v>53.5</v>
       </c>
       <c r="EI19" t="n">
-        <v>35.04</v>
+        <v>36.33</v>
       </c>
       <c r="EJ19" t="n">
-        <v>12.21</v>
+        <v>17.17</v>
       </c>
       <c r="EK19" t="n">
-        <v>115.92</v>
+        <v>136.08</v>
       </c>
       <c r="EL19" t="n">
-        <v>6.71</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="20">
@@ -9008,13 +9008,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -9035,19 +9035,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q20" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R20" t="n">
         <v>3</v>
@@ -9056,34 +9056,34 @@
         <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U20" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X20" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y20" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Z20" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA20" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AB20" t="n">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AC20" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AD20" t="n">
         <v>9</v>
@@ -9098,61 +9098,61 @@
         <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>40.583333333333</v>
+        <v>40.32</v>
       </c>
       <c r="AI20" t="n">
-        <v>7568</v>
+        <v>7906</v>
       </c>
       <c r="AJ20" t="n">
-        <v>5741</v>
+        <v>6008</v>
       </c>
       <c r="AK20" t="n">
-        <v>75.8588794926</v>
+        <v>75.99291677207199</v>
       </c>
       <c r="AL20" t="n">
-        <v>3624</v>
+        <v>3787</v>
       </c>
       <c r="AM20" t="n">
-        <v>3155</v>
+        <v>3297</v>
       </c>
       <c r="AN20" t="n">
-        <v>87.058498896247</v>
+        <v>87.060998151571</v>
       </c>
       <c r="AO20" t="n">
-        <v>3944</v>
+        <v>4119</v>
       </c>
       <c r="AP20" t="n">
-        <v>2586</v>
+        <v>2711</v>
       </c>
       <c r="AQ20" t="n">
-        <v>65.567951318458</v>
+        <v>65.816945860646</v>
       </c>
       <c r="AR20" t="n">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="AS20" t="n">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AT20" t="n">
-        <v>45.27027027027</v>
+        <v>44.978165938865</v>
       </c>
       <c r="AU20" t="n">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="AV20" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AW20" t="n">
-        <v>27.210884353741</v>
+        <v>26.637554585153</v>
       </c>
       <c r="AX20" t="n">
         <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="AZ20" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="BA20" t="n">
         <v>74</v>
@@ -9164,13 +9164,13 @@
         <v>13</v>
       </c>
       <c r="BD20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE20" t="n">
         <v>4</v>
       </c>
       <c r="BF20" t="n">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="BG20" t="n">
         <v>2</v>
@@ -9179,43 +9179,43 @@
         <v>3</v>
       </c>
       <c r="BI20" t="n">
-        <v>2502</v>
+        <v>2584</v>
       </c>
       <c r="BJ20" t="n">
-        <v>1272</v>
+        <v>1309</v>
       </c>
       <c r="BK20" t="n">
-        <v>50.83932853717</v>
+        <v>50.657894736842</v>
       </c>
       <c r="BL20" t="n">
-        <v>1582</v>
+        <v>1638</v>
       </c>
       <c r="BM20" t="n">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="BN20" t="n">
-        <v>48.925410872314</v>
+        <v>48.656898656899</v>
       </c>
       <c r="BO20" t="n">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="BP20" t="n">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="BQ20" t="n">
-        <v>54.130434782609</v>
+        <v>54.122621564482</v>
       </c>
       <c r="BR20" t="n">
-        <v>3062</v>
+        <v>3178</v>
       </c>
       <c r="BS20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BT20" t="n">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="BU20" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BV20" t="n">
         <v>0</v>
@@ -9224,46 +9224,46 @@
         <v>2</v>
       </c>
       <c r="BX20" t="n">
-        <v>6.7338709677419</v>
+        <v>6.7266149870801</v>
       </c>
       <c r="BY20" t="n">
-        <v>2468</v>
+        <v>2560</v>
       </c>
       <c r="BZ20" t="n">
-        <v>5039</v>
+        <v>5338</v>
       </c>
       <c r="CA20" t="n">
-        <v>4472</v>
+        <v>4785</v>
       </c>
       <c r="CB20" t="n">
-        <v>9511</v>
+        <v>10123</v>
       </c>
       <c r="CC20" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="CD20" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CE20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CF20" t="n">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="CG20" t="n">
+        <v>125</v>
+      </c>
+      <c r="CH20" t="n">
         <v>124</v>
       </c>
-      <c r="CH20" t="n">
-        <v>121</v>
-      </c>
       <c r="CI20" t="n">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="CJ20" t="n">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="CK20" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CL20" t="n">
         <v>4</v>
@@ -9272,82 +9272,82 @@
         <v>13</v>
       </c>
       <c r="CN20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CO20" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="CP20" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="CQ20" t="n">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="CR20" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="CS20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU20" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="CV20" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW20" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="CX20" t="n">
         <v>126</v>
       </c>
       <c r="CY20" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="CZ20" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="DA20" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DB20" t="n">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="DC20" t="n">
-        <v>3381</v>
+        <v>3498</v>
       </c>
       <c r="DD20" t="n">
-        <v>6430</v>
+        <v>6780</v>
       </c>
       <c r="DE20" t="n">
-        <v>4947</v>
+        <v>5278</v>
       </c>
       <c r="DF20" t="n">
-        <v>11377</v>
+        <v>12058</v>
       </c>
       <c r="DG20" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="DH20" t="n">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="DI20" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="DJ20" t="n">
-        <v>1102</v>
+        <v>1138</v>
       </c>
       <c r="DK20" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="DL20" t="n">
         <v>49358</v>
       </c>
       <c r="DM20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="DN20" t="n">
         <v>0</v>
@@ -9363,25 +9363,25 @@
         </is>
       </c>
       <c r="DQ20" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="DR20" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="DS20" t="n">
-        <v>10.46</v>
+        <v>10.32</v>
       </c>
       <c r="DT20" t="n">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="DU20" t="n">
-        <v>3.92</v>
+        <v>3.88</v>
       </c>
       <c r="DV20" t="n">
-        <v>13.08</v>
+        <v>13.12</v>
       </c>
       <c r="DW20" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="DX20" t="n">
         <v>0.08</v>
@@ -9390,43 +9390,43 @@
         <v>1.88</v>
       </c>
       <c r="DZ20" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="EA20" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="EB20" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="EC20" t="n">
-        <v>239.21</v>
+        <v>240.32</v>
       </c>
       <c r="ED20" t="n">
-        <v>16.5</v>
+        <v>16.32</v>
       </c>
       <c r="EE20" t="n">
-        <v>8.710000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="EF20" t="n">
-        <v>30.71</v>
+        <v>30.2</v>
       </c>
       <c r="EG20" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="EH20" t="n">
-        <v>53</v>
+        <v>52.36</v>
       </c>
       <c r="EI20" t="n">
-        <v>32.25</v>
+        <v>31.88</v>
       </c>
       <c r="EJ20" t="n">
-        <v>20.75</v>
+        <v>20.48</v>
       </c>
       <c r="EK20" t="n">
-        <v>127.58</v>
+        <v>127.12</v>
       </c>
       <c r="EL20" t="n">
-        <v>4.71</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="21">

--- a/sofascore_team_data/Serie_A_Team_Stats.xlsx
+++ b/sofascore_team_data/Serie_A_Team_Stats.xlsx
@@ -6392,13 +6392,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>24</v>
       </c>
       <c r="I14" t="n">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -6428,10 +6428,10 @@
         <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q14" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R14" t="n">
         <v>7</v>
@@ -6443,109 +6443,109 @@
         <v>15</v>
       </c>
       <c r="U14" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
         <v>84</v>
       </c>
       <c r="Y14" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Z14" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AA14" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AB14" t="n">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="AC14" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AD14" t="n">
         <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH14" t="n">
-        <v>45.291666666667</v>
+        <v>45.84</v>
       </c>
       <c r="AI14" t="n">
-        <v>9335</v>
+        <v>9775</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7555</v>
+        <v>7901</v>
       </c>
       <c r="AK14" t="n">
-        <v>80.93197643278</v>
+        <v>80.828644501279</v>
       </c>
       <c r="AL14" t="n">
-        <v>5316</v>
+        <v>5568</v>
       </c>
       <c r="AM14" t="n">
-        <v>4778</v>
+        <v>4993</v>
       </c>
       <c r="AN14" t="n">
-        <v>89.879608728367</v>
+        <v>89.673132183908</v>
       </c>
       <c r="AO14" t="n">
-        <v>4019</v>
+        <v>4207</v>
       </c>
       <c r="AP14" t="n">
-        <v>2777</v>
+        <v>2908</v>
       </c>
       <c r="AQ14" t="n">
-        <v>69.09679024633</v>
+        <v>69.122890420727</v>
       </c>
       <c r="AR14" t="n">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="AS14" t="n">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AT14" t="n">
-        <v>46.606914212548</v>
+        <v>46.323529411765</v>
       </c>
       <c r="AU14" t="n">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="AV14" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AW14" t="n">
-        <v>26.729559748428</v>
+        <v>26.162790697674</v>
       </c>
       <c r="AX14" t="n">
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="AZ14" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BA14" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BB14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD14" t="n">
         <v>1</v>
@@ -6554,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="BF14" t="n">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="BG14" t="n">
         <v>2</v>
@@ -6563,40 +6563,40 @@
         <v>2</v>
       </c>
       <c r="BI14" t="n">
-        <v>2289</v>
+        <v>2424</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1132</v>
+        <v>1201</v>
       </c>
       <c r="BK14" t="n">
-        <v>49.453910004369</v>
+        <v>49.546204620462</v>
       </c>
       <c r="BL14" t="n">
-        <v>1685</v>
+        <v>1768</v>
       </c>
       <c r="BM14" t="n">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="BN14" t="n">
-        <v>50.445103857567</v>
+        <v>50.339366515837</v>
       </c>
       <c r="BO14" t="n">
-        <v>604</v>
+        <v>656</v>
       </c>
       <c r="BP14" t="n">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="BQ14" t="n">
-        <v>46.688741721854</v>
+        <v>47.408536585366</v>
       </c>
       <c r="BR14" t="n">
-        <v>2848</v>
+        <v>3010</v>
       </c>
       <c r="BS14" t="n">
         <v>36</v>
       </c>
       <c r="BT14" t="n">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="BU14" t="n">
         <v>57</v>
@@ -6608,46 +6608,46 @@
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>6.7630026809651</v>
+        <v>6.7537467700258</v>
       </c>
       <c r="BY14" t="n">
-        <v>2258</v>
+        <v>2308</v>
       </c>
       <c r="BZ14" t="n">
-        <v>4948</v>
+        <v>5061</v>
       </c>
       <c r="CA14" t="n">
-        <v>4555</v>
+        <v>4659</v>
       </c>
       <c r="CB14" t="n">
-        <v>9503</v>
+        <v>9720</v>
       </c>
       <c r="CC14" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="CD14" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CE14" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CF14" t="n">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="CG14" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="CH14" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="CI14" t="n">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="CJ14" t="n">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="CK14" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="CL14" t="n">
         <v>2</v>
@@ -6659,16 +6659,16 @@
         <v>10</v>
       </c>
       <c r="CO14" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="CP14" t="n">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="CQ14" t="n">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="CR14" t="n">
-        <v>1128</v>
+        <v>1186</v>
       </c>
       <c r="CS14" t="n">
         <v>29</v>
@@ -6677,61 +6677,61 @@
         <v>3</v>
       </c>
       <c r="CU14" t="n">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="CV14" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="CW14" t="n">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="CX14" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CY14" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="CZ14" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="DA14" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="DB14" t="n">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="DC14" t="n">
-        <v>3245</v>
+        <v>3326</v>
       </c>
       <c r="DD14" t="n">
-        <v>6379</v>
+        <v>6563</v>
       </c>
       <c r="DE14" t="n">
-        <v>4869</v>
+        <v>4986</v>
       </c>
       <c r="DF14" t="n">
-        <v>11248</v>
+        <v>11549</v>
       </c>
       <c r="DG14" t="n">
         <v>44</v>
       </c>
       <c r="DH14" t="n">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="DI14" t="n">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1001</v>
+        <v>1053</v>
       </c>
       <c r="DK14" t="n">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="DL14" t="n">
         <v>49333</v>
       </c>
       <c r="DM14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="DN14" t="n">
         <v>0</v>
@@ -6747,70 +6747,70 @@
         </is>
       </c>
       <c r="DQ14" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="DS14" t="n">
-        <v>9.92</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="DT14" t="n">
-        <v>3.5</v>
+        <v>3.36</v>
       </c>
       <c r="DU14" t="n">
-        <v>3.33</v>
+        <v>3.52</v>
       </c>
       <c r="DV14" t="n">
-        <v>15.42</v>
+        <v>15.44</v>
       </c>
       <c r="DW14" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="DX14" t="n">
         <v>0</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EB14" t="n">
         <v>0.04</v>
       </c>
       <c r="EC14" t="n">
-        <v>314.79</v>
+        <v>316.04</v>
       </c>
       <c r="ED14" t="n">
-        <v>15.88</v>
+        <v>16.04</v>
       </c>
       <c r="EE14" t="n">
-        <v>8.710000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="EF14" t="n">
-        <v>27.38</v>
+        <v>27.28</v>
       </c>
       <c r="EG14" t="n">
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
       <c r="EH14" t="n">
-        <v>47.17</v>
+        <v>48.04</v>
       </c>
       <c r="EI14" t="n">
-        <v>35.42</v>
+        <v>35.6</v>
       </c>
       <c r="EJ14" t="n">
-        <v>11.75</v>
+        <v>12.44</v>
       </c>
       <c r="EK14" t="n">
-        <v>118.67</v>
+        <v>120.4</v>
       </c>
       <c r="EL14" t="n">
-        <v>5.58</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="15">
@@ -7252,11 +7252,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2761</v>
+        <v>2713</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -7267,340 +7267,340 @@
         <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>16</v>
+      </c>
+      <c r="I16" t="n">
+        <v>290</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>23</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>106</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15</v>
+      </c>
+      <c r="T16" t="n">
+        <v>10</v>
+      </c>
+      <c r="U16" t="n">
+        <v>51</v>
+      </c>
+      <c r="V16" t="n">
+        <v>35</v>
+      </c>
+      <c r="W16" t="n">
+        <v>32</v>
+      </c>
+      <c r="X16" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>115</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>356</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>93</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9240</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>7359</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>79.642857142857</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>4791</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>4265</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>89.021081193905</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>4449</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>3094</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>69.54371768936799</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>850</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>369</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>43.411764705882</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>443</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>118</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>26.636568848758</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>420</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>173</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>77</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>688</v>
+      </c>
+      <c r="BG16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>17</v>
-      </c>
-      <c r="I16" t="n">
-        <v>228</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="BH16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>2720</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1363</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>50.110294117647</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1773</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>918</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>51.776649746193</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>947</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>445</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>46.990496304118</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>3263</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>37</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>345</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>50</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW16" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="BX16" t="n">
+        <v>6.758530183727</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>2106</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>4187</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>4270</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>8457</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>53</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>30</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>29</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>582</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>130</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>135</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>459</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>311</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>121</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>5</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>192</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>245</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>581</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>1320</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>36</v>
+      </c>
+      <c r="CT16" t="n">
         <v>4</v>
       </c>
-      <c r="N16" t="n">
-        <v>20</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>138</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>90</v>
-      </c>
-      <c r="R16" t="n">
-        <v>6</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>40</v>
-      </c>
-      <c r="V16" t="n">
-        <v>34</v>
-      </c>
-      <c r="W16" t="n">
-        <v>21</v>
-      </c>
-      <c r="X16" t="n">
-        <v>81</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>61</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="CU16" t="n">
+        <v>341</v>
+      </c>
+      <c r="CV16" t="n">
         <v>112</v>
       </c>
-      <c r="AB16" t="n">
-        <v>253</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>82</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>45.04</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>9365</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>7279</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>77.725573945542</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>4899</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>4331</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>88.405797101449</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>4466</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>2948</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>66.009852216749</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>923</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>389</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>42.145178764897</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>414</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>92</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>22.222222222222</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>363</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>180</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>109</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>742</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>2347</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>1155</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>49.211759693225</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>1548</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>762</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>49.22480620155</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>799</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>393</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>49.18648310388</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>3269</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>42</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>327</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>6.7425974025974</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>2499</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>5014</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>4679</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>9693</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>63</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>49</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>41</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>610</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>167</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>146</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>543</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>329</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>155</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>6</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>7</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>12</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>165</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>330</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>636</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>1246</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>48</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>427</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>124</v>
-      </c>
       <c r="CW16" t="n">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="CX16" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="CY16" t="n">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="CZ16" t="n">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="DA16" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="DB16" t="n">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="DC16" t="n">
-        <v>3435</v>
+        <v>3018</v>
       </c>
       <c r="DD16" t="n">
-        <v>6487</v>
+        <v>5667</v>
       </c>
       <c r="DE16" t="n">
-        <v>5084</v>
+        <v>4811</v>
       </c>
       <c r="DF16" t="n">
-        <v>11571</v>
+        <v>10478</v>
       </c>
       <c r="DG16" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="DH16" t="n">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="DI16" t="n">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1084</v>
+        <v>1057</v>
       </c>
       <c r="DK16" t="n">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="DL16" t="n">
-        <v>49110</v>
+        <v>49071</v>
       </c>
       <c r="DM16" t="n">
         <v>25</v>
@@ -7619,80 +7619,80 @@
         </is>
       </c>
       <c r="DQ16" t="n">
-        <v>0.84</v>
+        <v>1.16</v>
       </c>
       <c r="DR16" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="DS16" t="n">
-        <v>9.119999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="DT16" t="n">
-        <v>3.24</v>
+        <v>4.08</v>
       </c>
       <c r="DU16" t="n">
-        <v>3.28</v>
+        <v>3.72</v>
       </c>
       <c r="DV16" t="n">
-        <v>13.08</v>
+        <v>13.8</v>
       </c>
       <c r="DW16" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="DY16" t="n">
         <v>2.04</v>
       </c>
-      <c r="DX16" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>1.6</v>
-      </c>
       <c r="DZ16" t="n">
-        <v>0.84</v>
+        <v>1.28</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="EC16" t="n">
-        <v>291.16</v>
+        <v>294.36</v>
       </c>
       <c r="ED16" t="n">
-        <v>14.52</v>
+        <v>16.8</v>
       </c>
       <c r="EE16" t="n">
-        <v>7.2</v>
+        <v>6.92</v>
       </c>
       <c r="EF16" t="n">
-        <v>29.68</v>
+        <v>27.52</v>
       </c>
       <c r="EG16" t="n">
-        <v>4.36</v>
+        <v>3.08</v>
       </c>
       <c r="EH16" t="n">
-        <v>46.2</v>
+        <v>54.52</v>
       </c>
       <c r="EI16" t="n">
-        <v>30.48</v>
+        <v>36.72</v>
       </c>
       <c r="EJ16" t="n">
-        <v>15.72</v>
+        <v>17.8</v>
       </c>
       <c r="EK16" t="n">
-        <v>130.76</v>
+        <v>130.52</v>
       </c>
       <c r="EL16" t="n">
-        <v>4.48</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2713</v>
+        <v>2761</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -7703,340 +7703,340 @@
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>17</v>
+      </c>
+      <c r="I17" t="n">
+        <v>228</v>
+      </c>
+      <c r="J17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="n">
-        <v>16</v>
-      </c>
-      <c r="I17" t="n">
-        <v>290</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>20</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>138</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>90</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6</v>
+      </c>
+      <c r="S17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>40</v>
+      </c>
+      <c r="V17" t="n">
+        <v>34</v>
+      </c>
+      <c r="W17" t="n">
+        <v>21</v>
+      </c>
+      <c r="X17" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>86</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>112</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>253</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>9365</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>7279</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>77.725573945542</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>4899</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>4331</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>88.405797101449</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>4466</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2948</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>66.009852216749</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>923</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>389</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>42.145178764897</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>414</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>92</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>22.222222222222</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>363</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>180</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>109</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD17" t="n">
         <v>3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="BE17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>742</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>2347</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1155</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>49.211759693225</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1548</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>762</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>49.22480620155</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>799</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>393</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>49.18648310388</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>3269</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>42</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>327</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>6.7425974025974</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>2499</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>5014</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>4679</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>9693</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>63</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>49</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>610</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>167</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>146</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>543</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>329</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>155</v>
+      </c>
+      <c r="CL17" t="n">
         <v>6</v>
       </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="CM17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN17" t="n">
         <v>12</v>
       </c>
-      <c r="N17" t="n">
-        <v>23</v>
-      </c>
-      <c r="O17" t="n">
-        <v>6</v>
-      </c>
-      <c r="P17" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>106</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>15</v>
-      </c>
-      <c r="T17" t="n">
-        <v>10</v>
-      </c>
-      <c r="U17" t="n">
-        <v>51</v>
-      </c>
-      <c r="V17" t="n">
-        <v>35</v>
-      </c>
-      <c r="W17" t="n">
-        <v>32</v>
-      </c>
-      <c r="X17" t="n">
-        <v>102</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>115</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>73</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>356</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>93</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>9240</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>7359</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>79.642857142857</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>4791</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>4265</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>89.021081193905</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>4449</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>3094</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>69.54371768936799</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>850</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>369</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>43.411764705882</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>443</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>118</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>26.636568848758</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>420</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>173</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>77</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>688</v>
-      </c>
-      <c r="BG17" t="n">
+      <c r="CO17" t="n">
+        <v>165</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>330</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>636</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>1246</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>48</v>
+      </c>
+      <c r="CT17" t="n">
         <v>1</v>
       </c>
-      <c r="BH17" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>2720</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>1363</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>50.110294117647</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>1773</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>918</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>51.776649746193</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>947</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>445</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>46.990496304118</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>3263</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>37</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>345</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>50</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>6.758530183727</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>2106</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>4187</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>4270</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>8457</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>53</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>30</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>29</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>582</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>130</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>135</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>459</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>311</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>121</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>5</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>9</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>192</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>245</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>581</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>1320</v>
-      </c>
-      <c r="CS17" t="n">
+      <c r="CU17" t="n">
+        <v>427</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>124</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>277</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>150</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>161</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>142</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>124</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>329</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>3435</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>6487</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>5084</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>11571</v>
+      </c>
+      <c r="DG17" t="n">
         <v>36</v>
       </c>
-      <c r="CT17" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>341</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>112</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>231</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>110</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>117</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>112</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>112</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>425</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>3018</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>5667</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>4811</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>10478</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>57</v>
-      </c>
       <c r="DH17" t="n">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="DI17" t="n">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="DJ17" t="n">
-        <v>1057</v>
+        <v>1084</v>
       </c>
       <c r="DK17" t="n">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="DL17" t="n">
-        <v>49071</v>
+        <v>49110</v>
       </c>
       <c r="DM17" t="n">
         <v>25</v>
@@ -8055,80 +8055,80 @@
         </is>
       </c>
       <c r="DQ17" t="n">
-        <v>1.16</v>
+        <v>0.84</v>
       </c>
       <c r="DR17" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="DS17" t="n">
-        <v>11.6</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="DT17" t="n">
-        <v>4.08</v>
+        <v>3.24</v>
       </c>
       <c r="DU17" t="n">
-        <v>3.72</v>
+        <v>3.28</v>
       </c>
       <c r="DV17" t="n">
-        <v>13.8</v>
+        <v>13.08</v>
       </c>
       <c r="DW17" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="DX17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="EB17" t="n">
         <v>0.08</v>
       </c>
-      <c r="DY17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>0.12</v>
-      </c>
       <c r="EC17" t="n">
-        <v>294.36</v>
+        <v>291.16</v>
       </c>
       <c r="ED17" t="n">
-        <v>16.8</v>
+        <v>14.52</v>
       </c>
       <c r="EE17" t="n">
-        <v>6.92</v>
+        <v>7.2</v>
       </c>
       <c r="EF17" t="n">
-        <v>27.52</v>
+        <v>29.68</v>
       </c>
       <c r="EG17" t="n">
-        <v>3.08</v>
+        <v>4.36</v>
       </c>
       <c r="EH17" t="n">
-        <v>54.52</v>
+        <v>46.2</v>
       </c>
       <c r="EI17" t="n">
-        <v>36.72</v>
+        <v>30.48</v>
       </c>
       <c r="EJ17" t="n">
-        <v>17.8</v>
+        <v>15.72</v>
       </c>
       <c r="EK17" t="n">
-        <v>130.52</v>
+        <v>130.76</v>
       </c>
       <c r="EL17" t="n">
-        <v>6.4</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2693</v>
+        <v>2689</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -8139,340 +8139,340 @@
         <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
         <v>5</v>
       </c>
       <c r="P18" t="n">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="Q18" t="n">
+        <v>115</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>9</v>
+      </c>
+      <c r="U18" t="n">
+        <v>29</v>
+      </c>
+      <c r="V18" t="n">
+        <v>22</v>
+      </c>
+      <c r="W18" t="n">
+        <v>20</v>
+      </c>
+      <c r="X18" t="n">
+        <v>63</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>104</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>91</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>139</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>365</v>
+      </c>
+      <c r="AC18" t="n">
         <v>119</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>8509</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>6452</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>75.82559642731199</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>3554</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>3113</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>87.591446257738</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4955</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>3339</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>67.38647830474299</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>889</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>383</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>43.082114735658</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>436</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>25.229357798165</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>466</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>154</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>68</v>
+      </c>
+      <c r="BB18" t="n">
         <v>3</v>
       </c>
-      <c r="S18" t="n">
-        <v>10</v>
-      </c>
-      <c r="T18" t="n">
-        <v>15</v>
-      </c>
-      <c r="U18" t="n">
-        <v>60</v>
-      </c>
-      <c r="V18" t="n">
-        <v>40</v>
-      </c>
-      <c r="W18" t="n">
-        <v>41</v>
-      </c>
-      <c r="X18" t="n">
-        <v>92</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>148</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>105</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>179</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>366</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>118</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>52.44</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>10628</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8962</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>84.324426044411</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>5295</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>4891</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>92.37016052880099</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>5333</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>4071</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>76.336021001313</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>827</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>410</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>49.576783555018</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>500</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>112</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>311</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>189</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>78</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>5</v>
-      </c>
       <c r="BC18" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BD18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE18" t="n">
         <v>4</v>
       </c>
       <c r="BF18" t="n">
-        <v>512</v>
+        <v>711</v>
       </c>
       <c r="BG18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>2739</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>49.288061336254</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1855</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>915</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>49.326145552561</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>884</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>435</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>49.20814479638</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>3414</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>24</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>315</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
         <v>2</v>
       </c>
-      <c r="BI18" t="n">
-        <v>2342</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>1179</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>50.341588385995</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>1683</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>878</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>52.168746286393</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>659</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>301</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>45.67526555387</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>2889</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>47</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>322</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>55</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>1</v>
-      </c>
       <c r="BX18" t="n">
-        <v>6.754381443299</v>
+        <v>6.7125</v>
       </c>
       <c r="BY18" t="n">
-        <v>1928</v>
+        <v>1967</v>
       </c>
       <c r="BZ18" t="n">
-        <v>3994</v>
+        <v>4134</v>
       </c>
       <c r="CA18" t="n">
-        <v>4049</v>
+        <v>5163</v>
       </c>
       <c r="CB18" t="n">
-        <v>8043</v>
+        <v>9297</v>
       </c>
       <c r="CC18" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="CD18" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CE18" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="CF18" t="n">
-        <v>664</v>
+        <v>579</v>
       </c>
       <c r="CG18" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="CH18" t="n">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="CI18" t="n">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="CJ18" t="n">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="CK18" t="n">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="CL18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CM18" t="n">
         <v>7</v>
       </c>
       <c r="CN18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CO18" t="n">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="CP18" t="n">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="CQ18" t="n">
-        <v>579</v>
+        <v>542</v>
       </c>
       <c r="CR18" t="n">
-        <v>1218</v>
+        <v>1268</v>
       </c>
       <c r="CS18" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="CT18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="CV18" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="CW18" t="n">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="CX18" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CY18" t="n">
         <v>126</v>
       </c>
       <c r="CZ18" t="n">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="DA18" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="DB18" t="n">
-        <v>373</v>
+        <v>454</v>
       </c>
       <c r="DC18" t="n">
-        <v>2726</v>
+        <v>2909</v>
       </c>
       <c r="DD18" t="n">
-        <v>5259</v>
+        <v>5618</v>
       </c>
       <c r="DE18" t="n">
-        <v>4498</v>
+        <v>5699</v>
       </c>
       <c r="DF18" t="n">
-        <v>9757</v>
+        <v>11317</v>
       </c>
       <c r="DG18" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="DH18" t="n">
-        <v>393</v>
+        <v>526</v>
       </c>
       <c r="DI18" t="n">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="DJ18" t="n">
-        <v>1075</v>
+        <v>1113</v>
       </c>
       <c r="DK18" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="DL18" t="n">
-        <v>49334</v>
+        <v>49072</v>
       </c>
       <c r="DM18" t="n">
         <v>25</v>
@@ -8491,80 +8491,80 @@
         </is>
       </c>
       <c r="DQ18" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="DY18" t="n">
         <v>1.16</v>
       </c>
-      <c r="DR18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>2.4</v>
-      </c>
       <c r="DZ18" t="n">
-        <v>1.64</v>
+        <v>0.8</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="EC18" t="n">
-        <v>358.48</v>
+        <v>258.08</v>
       </c>
       <c r="ED18" t="n">
-        <v>12.44</v>
+        <v>18.64</v>
       </c>
       <c r="EE18" t="n">
-        <v>7.56</v>
+        <v>6.16</v>
       </c>
       <c r="EF18" t="n">
-        <v>20.48</v>
+        <v>28.44</v>
       </c>
       <c r="EG18" t="n">
-        <v>3.12</v>
+        <v>2.72</v>
       </c>
       <c r="EH18" t="n">
-        <v>47.16</v>
+        <v>54</v>
       </c>
       <c r="EI18" t="n">
-        <v>35.12</v>
+        <v>36.6</v>
       </c>
       <c r="EJ18" t="n">
-        <v>12.04</v>
+        <v>17.4</v>
       </c>
       <c r="EK18" t="n">
-        <v>115.56</v>
+        <v>136.56</v>
       </c>
       <c r="EL18" t="n">
-        <v>7.16</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -8572,346 +8572,346 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
         <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="Q19" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="R19" t="n">
         <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="U19" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="V19" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="W19" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="X19" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="Y19" t="n">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="Z19" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="AA19" t="n">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="AB19" t="n">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="AC19" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10628</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8962</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>84.324426044411</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>5295</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>4891</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>92.37016052880099</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>5333</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>4071</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>76.336021001313</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>827</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>410</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>49.576783555018</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>112</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>311</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>189</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>78</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC19" t="n">
         <v>7</v>
       </c>
-      <c r="AE19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>43.791666666667</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>8208</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>6235</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>75.962475633528</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>3437</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>3009</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>87.547279604306</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>4771</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>3226</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>67.616851813037</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>857</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>369</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>43.057176196033</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>417</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>106</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>25.419664268585</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>445</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>146</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>68</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>20</v>
-      </c>
       <c r="BD19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE19" t="n">
         <v>4</v>
       </c>
       <c r="BF19" t="n">
-        <v>678</v>
+        <v>512</v>
       </c>
       <c r="BG19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>2342</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1179</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>50.341588385995</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1683</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>878</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>52.168746286393</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>659</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>301</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>45.67526555387</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>2889</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>47</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>322</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>55</v>
+      </c>
+      <c r="BV19" t="n">
         <v>1</v>
       </c>
-      <c r="BH19" t="n">
+      <c r="BW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>6.754381443299</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>1928</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>3994</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>4049</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>8043</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>59</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>40</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>34</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>664</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>116</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>134</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>434</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>288</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>137</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>158</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>268</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>579</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>1218</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>21</v>
+      </c>
+      <c r="CT19" t="n">
         <v>3</v>
       </c>
-      <c r="BI19" t="n">
-        <v>2604</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>1284</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>49.308755760369</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>1772</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>872</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>49.20993227991</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>832</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>412</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>49.519230769231</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>3266</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>24</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>301</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>45</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>6.70027100271</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>1903</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>4003</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>4948</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>8951</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>62</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>39</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>41</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>554</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>121</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>100</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>436</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>423</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>189</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>6</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>11</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>181</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>224</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>525</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>1224</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>52</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>0</v>
-      </c>
       <c r="CU19" t="n">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="CV19" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CW19" t="n">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="CX19" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="CY19" t="n">
+        <v>126</v>
+      </c>
+      <c r="CZ19" t="n">
         <v>118</v>
       </c>
-      <c r="CZ19" t="n">
-        <v>99</v>
-      </c>
       <c r="DA19" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DB19" t="n">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="DC19" t="n">
-        <v>2811</v>
+        <v>2726</v>
       </c>
       <c r="DD19" t="n">
-        <v>5430</v>
+        <v>5259</v>
       </c>
       <c r="DE19" t="n">
-        <v>5447</v>
+        <v>4498</v>
       </c>
       <c r="DF19" t="n">
-        <v>10877</v>
+        <v>9757</v>
       </c>
       <c r="DG19" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="DH19" t="n">
-        <v>502</v>
+        <v>393</v>
       </c>
       <c r="DI19" t="n">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="DJ19" t="n">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="DK19" t="n">
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="DL19" t="n">
-        <v>49072</v>
+        <v>49334</v>
       </c>
       <c r="DM19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="DN19" t="n">
         <v>0</v>
@@ -8927,70 +8927,70 @@
         </is>
       </c>
       <c r="DQ19" t="n">
-        <v>0.62</v>
+        <v>1.16</v>
       </c>
       <c r="DR19" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="DS19" t="n">
-        <v>10.21</v>
+        <v>13.8</v>
       </c>
       <c r="DT19" t="n">
-        <v>2.46</v>
+        <v>3.68</v>
       </c>
       <c r="DU19" t="n">
-        <v>4.88</v>
+        <v>4.72</v>
       </c>
       <c r="DV19" t="n">
-        <v>12.54</v>
+        <v>12.88</v>
       </c>
       <c r="DW19" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="DX19" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="DY19" t="n">
-        <v>1.12</v>
+        <v>2.4</v>
       </c>
       <c r="DZ19" t="n">
-        <v>0.79</v>
+        <v>1.64</v>
       </c>
       <c r="EA19" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="EB19" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="EC19" t="n">
-        <v>259.79</v>
+        <v>358.48</v>
       </c>
       <c r="ED19" t="n">
-        <v>18.54</v>
+        <v>12.44</v>
       </c>
       <c r="EE19" t="n">
-        <v>6.08</v>
+        <v>7.56</v>
       </c>
       <c r="EF19" t="n">
-        <v>28.25</v>
+        <v>20.48</v>
       </c>
       <c r="EG19" t="n">
-        <v>2.83</v>
+        <v>3.12</v>
       </c>
       <c r="EH19" t="n">
-        <v>53.5</v>
+        <v>47.16</v>
       </c>
       <c r="EI19" t="n">
-        <v>36.33</v>
+        <v>35.12</v>
       </c>
       <c r="EJ19" t="n">
-        <v>17.17</v>
+        <v>12.04</v>
       </c>
       <c r="EK19" t="n">
-        <v>136.08</v>
+        <v>115.56</v>
       </c>
       <c r="EL19" t="n">
-        <v>5.54</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="20">

--- a/sofascore_team_data/Serie_A_Team_Stats.xlsx
+++ b/sofascore_team_data/Serie_A_Team_Stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL21"/>
+  <dimension ref="A1:DP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,116 +1034,6 @@
           <t>statisticsType_statisticsType</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>goalsScored_per_90</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>goalsConceded_per_90</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>shots_per_90</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>shotsOnTarget_per_90</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>corners_per_90</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>fouls_per_90</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>yellowCards_per_90</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>redCards_per_90</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>bigChances_per_90</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>bigChancesMissed_per_90</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>hitWoodwork_per_90</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>penaltyGoals_per_90</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>accuratePasses_per_90</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>tackles_per_90</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>interceptions_per_90</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>clearances_per_90</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>saves_per_90</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>duelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>groundDuelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>aerialDuelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>possessionLost_per_90</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>successfulDribbles_per_90</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1514,72 +1404,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>14</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>470.8</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>45.08</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>117</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>5.12</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1950,72 +1774,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>424.38</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>105.83</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>6.08</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2386,72 +2144,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>463.56</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>44.52</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>121.48</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>6.08</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2822,72 +2514,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>411.68</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>50.96</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>35.04</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>135.48</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>5.92</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3258,72 +2884,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>457.28</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>16</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>17.08</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>2</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>32.92</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>121.12</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>7.24</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3694,72 +3254,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>403.56</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="EF7" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>47.24</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>33.24</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>14</v>
-      </c>
-      <c r="EK7" t="n">
-        <v>122.76</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>8.24</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4130,72 +3624,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>469.08</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>48.88</v>
-      </c>
-      <c r="EI8" t="n">
-        <v>35.21</v>
-      </c>
-      <c r="EJ8" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="EK8" t="n">
-        <v>117.17</v>
-      </c>
-      <c r="EL8" t="n">
-        <v>7.79</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4566,72 +3994,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>356.56</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>34.48</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>126.64</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>6.52</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5002,72 +4364,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DZ10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>407.24</v>
-      </c>
-      <c r="ED10" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="EE10" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="EF10" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="EG10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="EH10" t="n">
-        <v>45.96</v>
-      </c>
-      <c r="EI10" t="n">
-        <v>33.68</v>
-      </c>
-      <c r="EJ10" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="EK10" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="EL10" t="n">
-        <v>5.52</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5438,72 +4734,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ11" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="DT11" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="DW11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="DX11" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="DZ11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="EA11" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="EB11" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC11" t="n">
-        <v>321.24</v>
-      </c>
-      <c r="ED11" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="EF11" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="EG11" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>44.08</v>
-      </c>
-      <c r="EI11" t="n">
-        <v>31.28</v>
-      </c>
-      <c r="EJ11" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="EK11" t="n">
-        <v>117.36</v>
-      </c>
-      <c r="EL11" t="n">
-        <v>5.4</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5874,72 +5104,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>289.24</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>51.28</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>17.08</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>123.92</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>7.6</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6310,72 +5474,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ13" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>287.96</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="EF13" t="n">
-        <v>24.64</v>
-      </c>
-      <c r="EG13" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="EH13" t="n">
-        <v>47.36</v>
-      </c>
-      <c r="EI13" t="n">
-        <v>31.76</v>
-      </c>
-      <c r="EJ13" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="EK13" t="n">
-        <v>125.68</v>
-      </c>
-      <c r="EL13" t="n">
-        <v>4.8</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6746,72 +5844,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ14" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="EA14" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="EB14" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="EC14" t="n">
-        <v>316.04</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="EE14" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="EF14" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="EG14" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="EH14" t="n">
-        <v>48.04</v>
-      </c>
-      <c r="EI14" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="EJ14" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="EK14" t="n">
-        <v>120.4</v>
-      </c>
-      <c r="EL14" t="n">
-        <v>5.64</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7182,72 +6214,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>4</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY15" t="n">
-        <v>2</v>
-      </c>
-      <c r="DZ15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="EA15" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="EB15" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC15" t="n">
-        <v>293.76</v>
-      </c>
-      <c r="ED15" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="EE15" t="n">
-        <v>8</v>
-      </c>
-      <c r="EF15" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="EG15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="EH15" t="n">
-        <v>49.52</v>
-      </c>
-      <c r="EI15" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="EJ15" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="EK15" t="n">
-        <v>126.52</v>
-      </c>
-      <c r="EL15" t="n">
-        <v>5.84</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7618,72 +6584,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>294.36</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>27.52</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>54.52</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>36.72</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="EK16" t="n">
-        <v>130.52</v>
-      </c>
-      <c r="EL16" t="n">
-        <v>6.4</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8054,72 +6954,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ17" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>291.16</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>29.68</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>130.76</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>4.48</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8490,72 +7324,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ18" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="DZ18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="EA18" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="EB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC18" t="n">
-        <v>258.08</v>
-      </c>
-      <c r="ED18" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>28.44</v>
-      </c>
-      <c r="EG18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>54</v>
-      </c>
-      <c r="EI18" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="EJ18" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>136.56</v>
-      </c>
-      <c r="EL18" t="n">
-        <v>5.56</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8926,72 +7694,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="DZ19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="EA19" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="EB19" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="EC19" t="n">
-        <v>358.48</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>47.16</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>35.12</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>115.56</v>
-      </c>
-      <c r="EL19" t="n">
-        <v>7.16</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9362,72 +8064,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ20" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DZ20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="EA20" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="EC20" t="n">
-        <v>240.32</v>
-      </c>
-      <c r="ED20" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="EG20" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>52.36</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>31.88</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>127.12</v>
-      </c>
-      <c r="EL20" t="n">
-        <v>4.64</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9797,72 +8433,6 @@
         <is>
           <t>team</t>
         </is>
-      </c>
-      <c r="DQ21" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="DV21" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="DW21" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="DX21" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="DZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA21" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EB21" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC21" t="n">
-        <v>247</v>
-      </c>
-      <c r="ED21" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="EE21" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="EF21" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="EG21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="EH21" t="n">
-        <v>50.24</v>
-      </c>
-      <c r="EI21" t="n">
-        <v>32.04</v>
-      </c>
-      <c r="EJ21" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="EK21" t="n">
-        <v>134.92</v>
-      </c>
-      <c r="EL21" t="n">
-        <v>6.04</v>
       </c>
     </row>
   </sheetData>
